--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1178637.390595476</v>
+        <v>1175878.269900666</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30577256.47093889</v>
+        <v>30577256.47093887</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4213780.10023088</v>
+        <v>4213780.100230897</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4858434.151291263</v>
+        <v>4858434.15129126</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>176.6503913274607</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1384,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>352.4758138495831</v>
       </c>
       <c r="H11" t="n">
-        <v>268.8491716889096</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>45.94566896931875</v>
+        <v>45.94566896931876</v>
       </c>
       <c r="T12" t="n">
         <v>125.2149158263212</v>
@@ -1530,13 +1530,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.3779285157344</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>64.86797449866765</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>144.3751931273316</v>
       </c>
       <c r="T13" t="n">
         <v>240.1662606755367</v>
@@ -1587,13 +1587,13 @@
         <v>275.6071253188071</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>254.3489604436322</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,19 +1609,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>385.2396134425465</v>
       </c>
       <c r="G14" t="n">
-        <v>363.6437594998945</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>31.07023173394492</v>
+        <v>148.7186885092349</v>
       </c>
       <c r="G16" t="n">
-        <v>163.1736961797558</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.7312490056928</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>144.3751931273316</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.1662606755367</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>327.4202778458943</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.6858492721906</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>268.8491716889096</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.494239352891</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>211.4011800383128</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>45.94566896931875</v>
+        <v>45.94566896931876</v>
       </c>
       <c r="T18" t="n">
         <v>125.2149158263212</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>83.92685067251493</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2022,7 +2022,7 @@
         <v>131.7312490056928</v>
       </c>
       <c r="I19" t="n">
-        <v>64.86797449866764</v>
+        <v>64.86797449866765</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>275.6071253188071</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>197.1767093191711</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>138.9549648434975</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2095,10 +2095,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>28.45777825042756</v>
+        <v>395.6858492721906</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>268.8491716889096</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>45.94566896931875</v>
+        <v>45.94566896931876</v>
       </c>
       <c r="T21" t="n">
         <v>125.2149158263212</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>76.2644524506628</v>
+        <v>163.1736961797558</v>
       </c>
       <c r="H22" t="n">
         <v>131.7312490056928</v>
       </c>
       <c r="I22" t="n">
-        <v>64.86797449866764</v>
+        <v>64.86797449866765</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>240.1662606755367</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6071253188071</v>
+        <v>188.6978815897046</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>44.12209369564539</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T23" t="n">
         <v>210.4335432615606</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4942393528913</v>
+        <v>256.494239352891</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>45.94566896931875</v>
+        <v>45.94566896931876</v>
       </c>
       <c r="T24" t="n">
         <v>125.2149158263212</v>
@@ -2496,7 +2496,7 @@
         <v>131.7312490056928</v>
       </c>
       <c r="I25" t="n">
-        <v>64.86797449866764</v>
+        <v>64.86797449866765</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>395.6858492721906</v>
       </c>
       <c r="H26" t="n">
-        <v>268.8491716889095</v>
+        <v>268.8491716889096</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>44.12209369564493</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T26" t="n">
-        <v>210.4335432615605</v>
+        <v>210.4335432615606</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4942393528921</v>
+        <v>256.494239352891</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2651,7 +2651,7 @@
         <v>83.62272671389323</v>
       </c>
       <c r="H27" t="n">
-        <v>32.54398121488136</v>
+        <v>32.54398121488141</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>45.94566896931865</v>
+        <v>45.94566896931875</v>
       </c>
       <c r="T27" t="n">
         <v>125.2149158263212</v>
@@ -2730,10 +2730,10 @@
         <v>163.1736961797558</v>
       </c>
       <c r="H28" t="n">
-        <v>131.7312490056927</v>
+        <v>131.7312490056928</v>
       </c>
       <c r="I28" t="n">
-        <v>64.86797449866751</v>
+        <v>64.86797449866764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>144.3751931273315</v>
+        <v>144.3751931273316</v>
       </c>
       <c r="T28" t="n">
         <v>240.1662606755367</v>
@@ -2809,7 +2809,7 @@
         <v>395.6858492721906</v>
       </c>
       <c r="H29" t="n">
-        <v>268.8491716889095</v>
+        <v>268.8491716889096</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>44.12209369564493</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T29" t="n">
-        <v>210.4335432615605</v>
+        <v>210.4335432615607</v>
       </c>
       <c r="U29" t="n">
-        <v>256.494239352891</v>
+        <v>256.4942393528913</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2888,7 +2888,7 @@
         <v>83.62272671389323</v>
       </c>
       <c r="H30" t="n">
-        <v>32.54398121488136</v>
+        <v>32.54398121488141</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>45.94566896931866</v>
+        <v>45.94566896931875</v>
       </c>
       <c r="T30" t="n">
         <v>125.2149158263212</v>
@@ -2967,10 +2967,10 @@
         <v>163.1736961797558</v>
       </c>
       <c r="H31" t="n">
-        <v>131.7312490056927</v>
+        <v>131.7312490056928</v>
       </c>
       <c r="I31" t="n">
-        <v>64.86797449866751</v>
+        <v>64.86797449866764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>144.3751931273315</v>
+        <v>144.3751931273316</v>
       </c>
       <c r="T31" t="n">
         <v>240.1662606755367</v>
@@ -3046,7 +3046,7 @@
         <v>395.6858492721906</v>
       </c>
       <c r="H32" t="n">
-        <v>268.8491716889095</v>
+        <v>268.8491716889096</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>44.12209369564493</v>
+        <v>44.12209369564629</v>
       </c>
       <c r="T32" t="n">
-        <v>210.4335432615605</v>
+        <v>210.4335432615606</v>
       </c>
       <c r="U32" t="n">
         <v>256.494239352891</v>
@@ -3091,7 +3091,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.8069000430768</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3125,7 +3125,7 @@
         <v>83.62272671389323</v>
       </c>
       <c r="H33" t="n">
-        <v>32.54398121488136</v>
+        <v>32.54398121488141</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>45.94566896931866</v>
+        <v>45.94566896931875</v>
       </c>
       <c r="T33" t="n">
         <v>125.2149158263212</v>
@@ -3204,10 +3204,10 @@
         <v>163.1736961797558</v>
       </c>
       <c r="H34" t="n">
-        <v>131.7312490056927</v>
+        <v>131.7312490056928</v>
       </c>
       <c r="I34" t="n">
-        <v>64.86797449866751</v>
+        <v>64.86797449866764</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>144.3751931273315</v>
+        <v>144.3751931273316</v>
       </c>
       <c r="T34" t="n">
         <v>240.1662606755367</v>
@@ -3277,7 +3277,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T35" t="n">
-        <v>89.3665794064796</v>
+        <v>210.4335432615606</v>
       </c>
       <c r="U35" t="n">
-        <v>256.494239352891</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>12.56306832938815</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>83.62272671389323</v>
       </c>
       <c r="H36" t="n">
-        <v>32.54398121488136</v>
+        <v>32.54398121488141</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>45.94566896931866</v>
+        <v>45.94566896931875</v>
       </c>
       <c r="T36" t="n">
         <v>125.2149158263212</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>77.30996914138956</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,10 +3441,10 @@
         <v>163.1736961797558</v>
       </c>
       <c r="H37" t="n">
-        <v>131.7312490056927</v>
+        <v>131.7312490056928</v>
       </c>
       <c r="I37" t="n">
-        <v>64.86797449866751</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>144.3751931273315</v>
+        <v>122.3339238968972</v>
       </c>
       <c r="T37" t="n">
         <v>240.1662606755367</v>
@@ -3511,16 +3511,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.6858492721906</v>
+        <v>215.141961458624</v>
       </c>
       <c r="H38" t="n">
-        <v>268.8491716889095</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.12209369564493</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.4335432615606</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.494239352891</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>402.8496268096413</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>83.62272671389323</v>
       </c>
       <c r="H39" t="n">
-        <v>32.54398121488136</v>
+        <v>32.54398121488141</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>45.94566896931866</v>
+        <v>45.94566896931875</v>
       </c>
       <c r="T39" t="n">
         <v>125.2149158263212</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.1736961797558</v>
+        <v>76.26445245065352</v>
       </c>
       <c r="H40" t="n">
-        <v>109.6899797752807</v>
+        <v>131.7312490056928</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>64.86797449866764</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>144.3751931273315</v>
+        <v>144.3751931273316</v>
       </c>
       <c r="T40" t="n">
         <v>240.1662606755367</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>20.61882516803007</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3757,7 +3757,7 @@
         <v>395.6858492721906</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>268.8491716889096</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.4335432615605</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.494239352891</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>124.9078549447899</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>83.62272671389323</v>
       </c>
       <c r="H42" t="n">
-        <v>32.54398121488136</v>
+        <v>32.54398121488141</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>45.94566896931866</v>
+        <v>45.94566896931875</v>
       </c>
       <c r="T42" t="n">
         <v>125.2149158263212</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.1736961797558</v>
       </c>
       <c r="H43" t="n">
-        <v>131.7312490056927</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>64.86797449866751</v>
+        <v>52.72947174044443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>144.3751931273315</v>
+        <v>144.3751931273316</v>
       </c>
       <c r="T43" t="n">
         <v>240.1662606755367</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6071253188071</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>155.2869996368373</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>44.12209369564493</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>363.5654100361227</v>
       </c>
       <c r="X44" t="n">
-        <v>338.6376509572318</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.62272671389323</v>
       </c>
       <c r="H45" t="n">
-        <v>32.54398121488136</v>
+        <v>32.54398121488141</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>45.94566896931866</v>
+        <v>45.94566896931876</v>
       </c>
       <c r="T45" t="n">
         <v>125.2149158263212</v>
@@ -4137,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>25.16286542844629</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.1736961797558</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>64.86797449866765</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>144.3751931273315</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.1662606755367</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6071253188071</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>83.08778565567792</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1354.364205412886</v>
+        <v>1260.400822416132</v>
       </c>
       <c r="C11" t="n">
-        <v>1354.364205412886</v>
+        <v>1260.400822416132</v>
       </c>
       <c r="D11" t="n">
-        <v>1175.92946669828</v>
+        <v>1260.400822416132</v>
       </c>
       <c r="E11" t="n">
-        <v>742.1547218565747</v>
+        <v>826.6260775744267</v>
       </c>
       <c r="F11" t="n">
-        <v>314.2872922657824</v>
+        <v>398.7586479836345</v>
       </c>
       <c r="G11" t="n">
-        <v>314.2872922657824</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="H11" t="n">
         <v>42.72247237799498</v>
       </c>
       <c r="I11" t="n">
-        <v>107.121645346188</v>
+        <v>107.1216453461884</v>
       </c>
       <c r="J11" t="n">
-        <v>249.7964350913662</v>
+        <v>249.7964350913665</v>
       </c>
       <c r="K11" t="n">
-        <v>463.6289602955453</v>
+        <v>463.6289602955457</v>
       </c>
       <c r="L11" t="n">
-        <v>728.9071161766298</v>
+        <v>728.9071161766302</v>
       </c>
       <c r="M11" t="n">
         <v>1024.080178222822</v>
@@ -5059,7 +5059,7 @@
         <v>1607.263039848288</v>
       </c>
       <c r="P11" t="n">
-        <v>1848.996356790732</v>
+        <v>1848.996356790733</v>
       </c>
       <c r="Q11" t="n">
         <v>2030.528010583508</v>
@@ -5068,25 +5068,25 @@
         <v>2136.123618899749</v>
       </c>
       <c r="S11" t="n">
-        <v>2136.123618899749</v>
+        <v>2091.555847490006</v>
       </c>
       <c r="T11" t="n">
-        <v>2136.123618899749</v>
+        <v>2091.555847490006</v>
       </c>
       <c r="U11" t="n">
-        <v>2136.123618899749</v>
+        <v>2091.555847490006</v>
       </c>
       <c r="V11" t="n">
-        <v>1773.506668833576</v>
+        <v>2091.555847490006</v>
       </c>
       <c r="W11" t="n">
-        <v>1773.506668833576</v>
+        <v>1686.70039290104</v>
       </c>
       <c r="X11" t="n">
-        <v>1354.364205412886</v>
+        <v>1686.70039290104</v>
       </c>
       <c r="Y11" t="n">
-        <v>1354.364205412886</v>
+        <v>1686.70039290104</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>42.72247237799498</v>
       </c>
       <c r="I12" t="n">
-        <v>73.68958624057028</v>
+        <v>99.75325940102789</v>
       </c>
       <c r="J12" t="n">
-        <v>158.6657135926384</v>
+        <v>316.6264555776697</v>
       </c>
       <c r="K12" t="n">
-        <v>303.9034500357511</v>
+        <v>461.8641920207824</v>
       </c>
       <c r="L12" t="n">
-        <v>499.1935101334313</v>
+        <v>657.1542521184626</v>
       </c>
       <c r="M12" t="n">
-        <v>727.0877990303708</v>
+        <v>885.048541015402</v>
       </c>
       <c r="N12" t="n">
-        <v>961.0137716337915</v>
+        <v>1118.974513618823</v>
       </c>
       <c r="O12" t="n">
-        <v>1175.010335417629</v>
+        <v>1332.97107740266</v>
       </c>
       <c r="P12" t="n">
-        <v>1346.761444124483</v>
+        <v>1504.722186109514</v>
       </c>
       <c r="Q12" t="n">
         <v>1619.53325386192</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>391.5284441088998</v>
+        <v>793.1504410450647</v>
       </c>
       <c r="C13" t="n">
-        <v>219.4295264162388</v>
+        <v>620.5887295282896</v>
       </c>
       <c r="D13" t="n">
-        <v>219.4295264162388</v>
+        <v>454.7107367298123</v>
       </c>
       <c r="E13" t="n">
-        <v>219.4295264162388</v>
+        <v>284.9527329805495</v>
       </c>
       <c r="F13" t="n">
-        <v>42.72247237799498</v>
+        <v>108.2456789423057</v>
       </c>
       <c r="G13" t="n">
-        <v>42.72247237799498</v>
+        <v>108.2456789423057</v>
       </c>
       <c r="H13" t="n">
-        <v>42.72247237799498</v>
+        <v>108.2456789423057</v>
       </c>
       <c r="I13" t="n">
         <v>42.72247237799498</v>
       </c>
       <c r="J13" t="n">
-        <v>96.03376384292197</v>
+        <v>96.03376384292196</v>
       </c>
       <c r="K13" t="n">
-        <v>183.6405923014235</v>
+        <v>342.010565216004</v>
       </c>
       <c r="L13" t="n">
-        <v>295.7471707529365</v>
+        <v>870.7011608936918</v>
       </c>
       <c r="M13" t="n">
-        <v>824.4377664306244</v>
+        <v>1399.39175657138</v>
       </c>
       <c r="N13" t="n">
-        <v>1353.128362108312</v>
+        <v>1514.781877341486</v>
       </c>
       <c r="O13" t="n">
-        <v>1879.379064297535</v>
+        <v>1621.363330304928</v>
       </c>
       <c r="P13" t="n">
         <v>2060.069069800457</v>
@@ -5226,25 +5226,25 @@
         <v>2136.123618899749</v>
       </c>
       <c r="S13" t="n">
-        <v>2136.123618899749</v>
+        <v>1990.290090488303</v>
       </c>
       <c r="T13" t="n">
-        <v>1893.531436399207</v>
+        <v>1747.697907987761</v>
       </c>
       <c r="U13" t="n">
-        <v>1615.140400723644</v>
+        <v>1469.306872312198</v>
       </c>
       <c r="V13" t="n">
-        <v>1328.184892594075</v>
+        <v>1212.388730449944</v>
       </c>
       <c r="W13" t="n">
-        <v>1056.158488180366</v>
+        <v>1212.388730449944</v>
       </c>
       <c r="X13" t="n">
-        <v>810.7667335137787</v>
+        <v>1212.388730449944</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3470628278869</v>
+        <v>984.9690597640517</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1709.824048414841</v>
+        <v>1301.537924714494</v>
       </c>
       <c r="C14" t="n">
-        <v>1271.681575598264</v>
+        <v>1301.537924714494</v>
       </c>
       <c r="D14" t="n">
-        <v>1271.681575598264</v>
+        <v>865.6281398889387</v>
       </c>
       <c r="E14" t="n">
-        <v>837.9068307565594</v>
+        <v>431.8533950472338</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0394011657672</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="G14" t="n">
         <v>42.72247237799498</v>
@@ -5275,16 +5275,16 @@
         <v>42.72247237799498</v>
       </c>
       <c r="I14" t="n">
-        <v>107.1216453461879</v>
+        <v>107.121645346188</v>
       </c>
       <c r="J14" t="n">
-        <v>249.796435091366</v>
+        <v>249.7964350913659</v>
       </c>
       <c r="K14" t="n">
-        <v>463.6289602955451</v>
+        <v>463.6289602955449</v>
       </c>
       <c r="L14" t="n">
-        <v>728.9071161766298</v>
+        <v>728.9071161766293</v>
       </c>
       <c r="M14" t="n">
         <v>1024.080178222822</v>
@@ -5293,7 +5293,7 @@
         <v>1324.029449006857</v>
       </c>
       <c r="O14" t="n">
-        <v>1607.263039848288</v>
+        <v>1607.263039848287</v>
       </c>
       <c r="P14" t="n">
         <v>1848.996356790732</v>
@@ -5323,7 +5323,7 @@
         <v>2136.123618899749</v>
       </c>
       <c r="Y14" t="n">
-        <v>2136.123618899749</v>
+        <v>1727.837495199402</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>42.72247237799498</v>
       </c>
       <c r="I15" t="n">
-        <v>73.68958624057026</v>
+        <v>99.75325940102788</v>
       </c>
       <c r="J15" t="n">
-        <v>158.6657135926384</v>
+        <v>316.6264555776697</v>
       </c>
       <c r="K15" t="n">
-        <v>303.9034500357511</v>
+        <v>461.8641920207824</v>
       </c>
       <c r="L15" t="n">
-        <v>499.1935101334313</v>
+        <v>657.1542521184626</v>
       </c>
       <c r="M15" t="n">
-        <v>727.0877990303708</v>
+        <v>885.048541015402</v>
       </c>
       <c r="N15" t="n">
-        <v>961.0137716337914</v>
+        <v>1118.974513618823</v>
       </c>
       <c r="O15" t="n">
         <v>1332.97107740266</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>437.5135344164406</v>
+        <v>391.5284441088994</v>
       </c>
       <c r="C16" t="n">
-        <v>437.5135344164406</v>
+        <v>391.5284441088994</v>
       </c>
       <c r="D16" t="n">
-        <v>437.5135344164406</v>
+        <v>391.5284441088994</v>
       </c>
       <c r="E16" t="n">
-        <v>437.5135344164406</v>
+        <v>391.5284441088994</v>
       </c>
       <c r="F16" t="n">
-        <v>406.1294619579103</v>
+        <v>241.3075466248237</v>
       </c>
       <c r="G16" t="n">
         <v>241.3075466248237</v>
@@ -5436,22 +5436,22 @@
         <v>42.72247237799498</v>
       </c>
       <c r="J16" t="n">
-        <v>182.6134490076118</v>
+        <v>96.03376384292196</v>
       </c>
       <c r="K16" t="n">
-        <v>332.831243192953</v>
+        <v>273.131752279157</v>
       </c>
       <c r="L16" t="n">
-        <v>861.5218388706407</v>
+        <v>385.2383307306699</v>
       </c>
       <c r="M16" t="n">
-        <v>979.7225073455971</v>
+        <v>913.9289264083576</v>
       </c>
       <c r="N16" t="n">
-        <v>1095.112628115704</v>
+        <v>1442.619522086045</v>
       </c>
       <c r="O16" t="n">
-        <v>1621.363330304927</v>
+        <v>1968.870224275268</v>
       </c>
       <c r="P16" t="n">
         <v>2060.069069800456</v>
@@ -5463,25 +5463,25 @@
         <v>2136.123618899749</v>
       </c>
       <c r="S16" t="n">
-        <v>1990.290090488303</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="T16" t="n">
-        <v>1747.697907987761</v>
+        <v>1893.531436399207</v>
       </c>
       <c r="U16" t="n">
-        <v>1469.306872312198</v>
+        <v>1615.140400723644</v>
       </c>
       <c r="V16" t="n">
-        <v>1182.351364182628</v>
+        <v>1328.184892594074</v>
       </c>
       <c r="W16" t="n">
-        <v>910.3249597689198</v>
+        <v>1056.158488180366</v>
       </c>
       <c r="X16" t="n">
-        <v>664.9332051023323</v>
+        <v>810.7667335137783</v>
       </c>
       <c r="Y16" t="n">
-        <v>437.5135344164406</v>
+        <v>583.3470628278865</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1250.552449036823</v>
+        <v>1591.072391577435</v>
       </c>
       <c r="C17" t="n">
-        <v>919.8248956571317</v>
+        <v>1591.072391577435</v>
       </c>
       <c r="D17" t="n">
-        <v>919.8248956571317</v>
+        <v>1591.072391577435</v>
       </c>
       <c r="E17" t="n">
-        <v>486.0501508154269</v>
+        <v>1157.29764673573</v>
       </c>
       <c r="F17" t="n">
-        <v>58.18272122463466</v>
+        <v>729.4302171449377</v>
       </c>
       <c r="G17" t="n">
-        <v>58.18272122463466</v>
+        <v>329.7475411124219</v>
       </c>
       <c r="H17" t="n">
-        <v>58.18272122463466</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="I17" t="n">
-        <v>122.581894192828</v>
+        <v>122.5818941928277</v>
       </c>
       <c r="J17" t="n">
-        <v>700.511371390924</v>
+        <v>700.5113713909237</v>
       </c>
       <c r="K17" t="n">
-        <v>914.343896595103</v>
+        <v>914.3438965951028</v>
       </c>
       <c r="L17" t="n">
         <v>1179.622052476187</v>
       </c>
       <c r="M17" t="n">
-        <v>1474.79511452238</v>
+        <v>1474.795114522379</v>
       </c>
       <c r="N17" t="n">
-        <v>1774.744385306415</v>
+        <v>1774.744385306414</v>
       </c>
       <c r="O17" t="n">
         <v>2057.977976147845</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.71129309029</v>
+        <v>2299.711293090289</v>
       </c>
       <c r="Q17" t="n">
-        <v>2634.386388162435</v>
+        <v>2634.386388162425</v>
       </c>
       <c r="R17" t="n">
-        <v>2909.136061231733</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="S17" t="n">
-        <v>2909.136061231733</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="T17" t="n">
-        <v>2909.136061231733</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="U17" t="n">
-        <v>2909.136061231733</v>
+        <v>2650.050970976277</v>
       </c>
       <c r="V17" t="n">
-        <v>2909.136061231733</v>
+        <v>2650.050970976277</v>
       </c>
       <c r="W17" t="n">
-        <v>2504.280606642767</v>
+        <v>2650.050970976277</v>
       </c>
       <c r="X17" t="n">
-        <v>2085.138143222077</v>
+        <v>2230.908507555588</v>
       </c>
       <c r="Y17" t="n">
-        <v>1676.852019521731</v>
+        <v>2017.371962062343</v>
       </c>
     </row>
     <row r="18">
@@ -5570,55 +5570,55 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>554.5738333172881</v>
+        <v>554.5738333172879</v>
       </c>
       <c r="C18" t="n">
-        <v>448.1173721539304</v>
+        <v>448.1173721539302</v>
       </c>
       <c r="D18" t="n">
-        <v>353.0270833004836</v>
+        <v>353.0270833004835</v>
       </c>
       <c r="E18" t="n">
-        <v>258.9066686274373</v>
+        <v>258.9066686274372</v>
       </c>
       <c r="F18" t="n">
-        <v>175.5228302435989</v>
+        <v>175.5228302435988</v>
       </c>
       <c r="G18" t="n">
-        <v>91.05542952249468</v>
+        <v>91.05542952249448</v>
       </c>
       <c r="H18" t="n">
-        <v>58.18272122463466</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="I18" t="n">
-        <v>89.14983508720996</v>
+        <v>115.2135082476673</v>
       </c>
       <c r="J18" t="n">
-        <v>174.1259624392781</v>
+        <v>200.1896355997354</v>
       </c>
       <c r="K18" t="n">
-        <v>319.3636988823908</v>
+        <v>345.427372042848</v>
       </c>
       <c r="L18" t="n">
-        <v>514.653758980071</v>
+        <v>540.7174321405283</v>
       </c>
       <c r="M18" t="n">
-        <v>742.5480478770104</v>
+        <v>768.6117210374678</v>
       </c>
       <c r="N18" t="n">
-        <v>976.4740204804311</v>
+        <v>1002.537693640888</v>
       </c>
       <c r="O18" t="n">
-        <v>1190.470584264268</v>
+        <v>1216.534257424725</v>
       </c>
       <c r="P18" t="n">
-        <v>1362.221692971122</v>
+        <v>1388.285366131579</v>
       </c>
       <c r="Q18" t="n">
-        <v>1634.99350270856</v>
+        <v>1517.82072461422</v>
       </c>
       <c r="R18" t="n">
-        <v>1690.836873898193</v>
+        <v>1690.836873898192</v>
       </c>
       <c r="S18" t="n">
         <v>1644.427107262517</v>
@@ -5630,16 +5630,16 @@
         <v>1341.671221583757</v>
       </c>
       <c r="V18" t="n">
-        <v>1142.553703645757</v>
+        <v>1142.553703645756</v>
       </c>
       <c r="W18" t="n">
-        <v>957.2309493789505</v>
+        <v>957.2309493789503</v>
       </c>
       <c r="X18" t="n">
-        <v>802.3635136178304</v>
+        <v>802.3635136178303</v>
       </c>
       <c r="Y18" t="n">
-        <v>675.8777343970512</v>
+        <v>675.8777343970511</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1018.707358029438</v>
+        <v>1106.494472907309</v>
       </c>
       <c r="C19" t="n">
         <v>933.9327613905338</v>
@@ -5658,67 +5658,67 @@
         <v>768.0547685920565</v>
       </c>
       <c r="E19" t="n">
-        <v>598.2967648427938</v>
+        <v>598.2967648427937</v>
       </c>
       <c r="F19" t="n">
-        <v>421.58971080455</v>
+        <v>421.5897108045498</v>
       </c>
       <c r="G19" t="n">
-        <v>256.7677954714634</v>
+        <v>256.7677954714632</v>
       </c>
       <c r="H19" t="n">
-        <v>123.7059277889454</v>
+        <v>123.7059277889452</v>
       </c>
       <c r="I19" t="n">
-        <v>58.18272122463466</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="J19" t="n">
-        <v>198.0736978542515</v>
+        <v>198.0736978542513</v>
       </c>
       <c r="K19" t="n">
-        <v>285.680526312753</v>
+        <v>560.4389808838885</v>
       </c>
       <c r="L19" t="n">
-        <v>815.9969865322271</v>
+        <v>1090.755441103363</v>
       </c>
       <c r="M19" t="n">
-        <v>1393.681522188096</v>
+        <v>1208.956109578319</v>
       </c>
       <c r="N19" t="n">
-        <v>1951.330446115847</v>
+        <v>1699.932295583346</v>
       </c>
       <c r="O19" t="n">
-        <v>2477.58114830507</v>
+        <v>2226.182997772569</v>
       </c>
       <c r="P19" t="n">
-        <v>2664.888737268109</v>
+        <v>2664.888737268099</v>
       </c>
       <c r="Q19" t="n">
-        <v>2896.222865569942</v>
+        <v>2896.222865569931</v>
       </c>
       <c r="R19" t="n">
-        <v>2909.136061231733</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="S19" t="n">
-        <v>2763.302532820287</v>
+        <v>2763.302532820277</v>
       </c>
       <c r="T19" t="n">
-        <v>2520.710350319745</v>
+        <v>2520.710350319735</v>
       </c>
       <c r="U19" t="n">
-        <v>2242.319314644182</v>
+        <v>2242.319314644172</v>
       </c>
       <c r="V19" t="n">
-        <v>1955.363806514613</v>
+        <v>2043.150921392484</v>
       </c>
       <c r="W19" t="n">
-        <v>1683.337402100904</v>
+        <v>1771.124516978775</v>
       </c>
       <c r="X19" t="n">
-        <v>1437.945647434317</v>
+        <v>1525.732762312188</v>
       </c>
       <c r="Y19" t="n">
-        <v>1210.525976748425</v>
+        <v>1298.313091626296</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1822.622383855251</v>
+        <v>2465.124649219567</v>
       </c>
       <c r="C20" t="n">
-        <v>1384.479911038675</v>
+        <v>2026.98217640299</v>
       </c>
       <c r="D20" t="n">
-        <v>948.5701262131192</v>
+        <v>1591.072391577435</v>
       </c>
       <c r="E20" t="n">
-        <v>514.7953813714144</v>
+        <v>1157.29764673573</v>
       </c>
       <c r="F20" t="n">
-        <v>86.9279517806221</v>
+        <v>729.4302171449377</v>
       </c>
       <c r="G20" t="n">
-        <v>58.18272122463465</v>
+        <v>329.7475411124219</v>
       </c>
       <c r="H20" t="n">
-        <v>58.18272122463465</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="I20" t="n">
-        <v>122.5818941928279</v>
+        <v>122.5818941928277</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2566839380061</v>
+        <v>265.2566839380058</v>
       </c>
       <c r="K20" t="n">
-        <v>479.0892091421852</v>
+        <v>479.089209142185</v>
       </c>
       <c r="L20" t="n">
-        <v>744.3673650232697</v>
+        <v>1199.100384297036</v>
       </c>
       <c r="M20" t="n">
-        <v>1039.540427069462</v>
+        <v>1494.273446343228</v>
       </c>
       <c r="N20" t="n">
-        <v>1339.489697853497</v>
+        <v>1794.222717127263</v>
       </c>
       <c r="O20" t="n">
-        <v>1622.723288694928</v>
+        <v>2077.456307968694</v>
       </c>
       <c r="P20" t="n">
-        <v>1914.375213007581</v>
+        <v>2319.189624911138</v>
       </c>
       <c r="Q20" t="n">
-        <v>2634.386388162435</v>
+        <v>2634.386388162425</v>
       </c>
       <c r="R20" t="n">
-        <v>2909.136061231733</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="S20" t="n">
-        <v>2909.136061231733</v>
+        <v>2864.56828982198</v>
       </c>
       <c r="T20" t="n">
-        <v>2909.136061231733</v>
+        <v>2864.56828982198</v>
       </c>
       <c r="U20" t="n">
-        <v>2650.050970976287</v>
+        <v>2605.483199566534</v>
       </c>
       <c r="V20" t="n">
-        <v>2650.050970976287</v>
+        <v>2605.483199566534</v>
       </c>
       <c r="W20" t="n">
-        <v>2650.050970976287</v>
+        <v>2605.483199566534</v>
       </c>
       <c r="X20" t="n">
-        <v>2230.908507555598</v>
+        <v>2605.483199566534</v>
       </c>
       <c r="Y20" t="n">
-        <v>1822.622383855251</v>
+        <v>2605.483199566534</v>
       </c>
     </row>
     <row r="21">
@@ -5807,55 +5807,55 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>554.5738333172881</v>
+        <v>554.5738333172879</v>
       </c>
       <c r="C21" t="n">
-        <v>448.1173721539304</v>
+        <v>448.1173721539302</v>
       </c>
       <c r="D21" t="n">
-        <v>353.0270833004836</v>
+        <v>353.0270833004835</v>
       </c>
       <c r="E21" t="n">
-        <v>258.9066686274373</v>
+        <v>258.9066686274372</v>
       </c>
       <c r="F21" t="n">
-        <v>175.5228302435989</v>
+        <v>175.5228302435988</v>
       </c>
       <c r="G21" t="n">
-        <v>91.05542952249468</v>
+        <v>91.05542952249448</v>
       </c>
       <c r="H21" t="n">
-        <v>58.18272122463465</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="I21" t="n">
-        <v>89.14983508720995</v>
+        <v>115.2135082476673</v>
       </c>
       <c r="J21" t="n">
-        <v>174.1259624392781</v>
+        <v>332.086704424309</v>
       </c>
       <c r="K21" t="n">
-        <v>319.3636988823908</v>
+        <v>477.3244408674217</v>
       </c>
       <c r="L21" t="n">
-        <v>514.653758980071</v>
+        <v>672.614500965102</v>
       </c>
       <c r="M21" t="n">
-        <v>742.5480478770104</v>
+        <v>900.5087898620413</v>
       </c>
       <c r="N21" t="n">
-        <v>976.4740204804311</v>
+        <v>1134.434762465462</v>
       </c>
       <c r="O21" t="n">
-        <v>1190.470584264268</v>
+        <v>1348.431326249299</v>
       </c>
       <c r="P21" t="n">
-        <v>1362.221692971122</v>
+        <v>1520.182434956153</v>
       </c>
       <c r="Q21" t="n">
         <v>1634.99350270856</v>
       </c>
       <c r="R21" t="n">
-        <v>1690.836873898193</v>
+        <v>1690.836873898192</v>
       </c>
       <c r="S21" t="n">
         <v>1644.427107262517</v>
@@ -5867,16 +5867,16 @@
         <v>1341.671221583757</v>
       </c>
       <c r="V21" t="n">
-        <v>1142.553703645757</v>
+        <v>1142.553703645756</v>
       </c>
       <c r="W21" t="n">
-        <v>957.2309493789505</v>
+        <v>957.2309493789503</v>
       </c>
       <c r="X21" t="n">
-        <v>802.3635136178304</v>
+        <v>802.3635136178303</v>
       </c>
       <c r="Y21" t="n">
-        <v>675.8777343970512</v>
+        <v>675.8777343970511</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1018.707358029437</v>
+        <v>1106.494472907309</v>
       </c>
       <c r="C22" t="n">
-        <v>846.1456465126622</v>
+        <v>933.9327613905338</v>
       </c>
       <c r="D22" t="n">
-        <v>680.2676537141849</v>
+        <v>768.0547685920565</v>
       </c>
       <c r="E22" t="n">
-        <v>510.5096499649222</v>
+        <v>598.2967648427937</v>
       </c>
       <c r="F22" t="n">
-        <v>333.8025959266784</v>
+        <v>421.5897108045498</v>
       </c>
       <c r="G22" t="n">
-        <v>256.7677954714634</v>
+        <v>256.7677954714632</v>
       </c>
       <c r="H22" t="n">
-        <v>123.7059277889454</v>
+        <v>123.7059277889452</v>
       </c>
       <c r="I22" t="n">
-        <v>58.18272122463465</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="J22" t="n">
-        <v>198.0736978542515</v>
+        <v>111.4940126895614</v>
       </c>
       <c r="K22" t="n">
-        <v>381.7892697506031</v>
+        <v>202.4751506445832</v>
       </c>
       <c r="L22" t="n">
-        <v>912.1057299700772</v>
+        <v>732.7916108640571</v>
       </c>
       <c r="M22" t="n">
-        <v>1489.790265625946</v>
+        <v>1310.476146519926</v>
       </c>
       <c r="N22" t="n">
-        <v>2047.439189553697</v>
+        <v>1868.125070447677</v>
       </c>
       <c r="O22" t="n">
-        <v>2573.689891742921</v>
+        <v>2394.375772636901</v>
       </c>
       <c r="P22" t="n">
-        <v>2664.888737268108</v>
+        <v>2833.08151213243</v>
       </c>
       <c r="Q22" t="n">
-        <v>2896.222865569941</v>
+        <v>2896.222865569931</v>
       </c>
       <c r="R22" t="n">
-        <v>2909.136061231733</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="S22" t="n">
-        <v>2763.302532820287</v>
+        <v>2763.302532820277</v>
       </c>
       <c r="T22" t="n">
-        <v>2520.710350319745</v>
+        <v>2520.710350319735</v>
       </c>
       <c r="U22" t="n">
-        <v>2242.319314644182</v>
+        <v>2330.106429522053</v>
       </c>
       <c r="V22" t="n">
-        <v>1955.363806514612</v>
+        <v>2043.150921392484</v>
       </c>
       <c r="W22" t="n">
-        <v>1683.337402100904</v>
+        <v>1771.124516978775</v>
       </c>
       <c r="X22" t="n">
-        <v>1437.945647434316</v>
+        <v>1525.732762312188</v>
       </c>
       <c r="Y22" t="n">
-        <v>1210.525976748424</v>
+        <v>1298.313091626296</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1200.020119113725</v>
       </c>
       <c r="F23" t="n">
-        <v>772.1526895229327</v>
+        <v>772.1526895229329</v>
       </c>
       <c r="G23" t="n">
         <v>372.4700134904169</v>
@@ -5998,25 +5998,25 @@
         <v>2094.080451863304</v>
       </c>
       <c r="M23" t="n">
-        <v>2389.253513909497</v>
+        <v>2389.253513909496</v>
       </c>
       <c r="N23" t="n">
-        <v>2689.202784693532</v>
+        <v>2689.202784693531</v>
       </c>
       <c r="O23" t="n">
-        <v>2972.436375534963</v>
+        <v>2972.436375534962</v>
       </c>
       <c r="P23" t="n">
-        <v>4042.479567310804</v>
+        <v>4042.479567310803</v>
       </c>
       <c r="Q23" t="n">
-        <v>4770.510007062174</v>
+        <v>4770.510007062173</v>
       </c>
       <c r="R23" t="n">
-        <v>5045.259680131471</v>
+        <v>5045.25968013147</v>
       </c>
       <c r="S23" t="n">
-        <v>5000.691908721728</v>
+        <v>5000.691908721727</v>
       </c>
       <c r="T23" t="n">
         <v>4788.132774114091</v>
@@ -6065,31 +6065,31 @@
         <v>100.9051936026294</v>
       </c>
       <c r="I24" t="n">
-        <v>131.8723074652047</v>
+        <v>157.9359806256623</v>
       </c>
       <c r="J24" t="n">
-        <v>374.8091768023035</v>
+        <v>242.9121079777304</v>
       </c>
       <c r="K24" t="n">
-        <v>520.0469132454162</v>
+        <v>388.1498444208431</v>
       </c>
       <c r="L24" t="n">
-        <v>715.3369733430965</v>
+        <v>583.4399045185233</v>
       </c>
       <c r="M24" t="n">
-        <v>943.231262240036</v>
+        <v>811.3341934154627</v>
       </c>
       <c r="N24" t="n">
-        <v>1177.157234843457</v>
+        <v>1045.260166018883</v>
       </c>
       <c r="O24" t="n">
-        <v>1391.153798627294</v>
+        <v>1259.25672980272</v>
       </c>
       <c r="P24" t="n">
-        <v>1562.904907334148</v>
+        <v>1431.007838509574</v>
       </c>
       <c r="Q24" t="n">
-        <v>1677.715975086555</v>
+        <v>1560.543196992215</v>
       </c>
       <c r="R24" t="n">
         <v>1733.559346276187</v>
@@ -6150,22 +6150,22 @@
         <v>240.7961702322463</v>
       </c>
       <c r="K25" t="n">
-        <v>328.4029986907479</v>
+        <v>603.1614532618834</v>
       </c>
       <c r="L25" t="n">
-        <v>858.7194589102218</v>
+        <v>1042.615317225943</v>
       </c>
       <c r="M25" t="n">
-        <v>1436.403994566091</v>
+        <v>1620.299852881813</v>
       </c>
       <c r="N25" t="n">
-        <v>1994.052918493842</v>
+        <v>2177.948776809564</v>
       </c>
       <c r="O25" t="n">
-        <v>2520.303620683065</v>
+        <v>2704.199478998787</v>
       </c>
       <c r="P25" t="n">
-        <v>2959.009360178595</v>
+        <v>2795.398324523975</v>
       </c>
       <c r="Q25" t="n">
         <v>3026.732452825808</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2507.847121597562</v>
+        <v>2507.847121597561</v>
       </c>
       <c r="C26" t="n">
-        <v>2069.704648780985</v>
+        <v>2069.704648780984</v>
       </c>
       <c r="D26" t="n">
-        <v>1633.79486395543</v>
+        <v>1633.794863955429</v>
       </c>
       <c r="E26" t="n">
-        <v>1200.020119113725</v>
+        <v>1200.020119113724</v>
       </c>
       <c r="F26" t="n">
-        <v>772.1526895229326</v>
+        <v>772.1526895229317</v>
       </c>
       <c r="G26" t="n">
-        <v>372.4700134904168</v>
+        <v>372.4700134904169</v>
       </c>
       <c r="H26" t="n">
         <v>100.9051936026294</v>
       </c>
       <c r="I26" t="n">
-        <v>165.3043665708231</v>
+        <v>165.3043665708227</v>
       </c>
       <c r="J26" t="n">
-        <v>743.2338437689201</v>
+        <v>743.2338437689187</v>
       </c>
       <c r="K26" t="n">
-        <v>1791.416660931278</v>
+        <v>1791.416660931276</v>
       </c>
       <c r="L26" t="n">
-        <v>2094.080451863296</v>
+        <v>2056.69481681236</v>
       </c>
       <c r="M26" t="n">
-        <v>2389.25351390949</v>
+        <v>2351.867878858553</v>
       </c>
       <c r="N26" t="n">
-        <v>2689.202784693527</v>
+        <v>2651.817149642588</v>
       </c>
       <c r="O26" t="n">
-        <v>2972.436375534959</v>
+        <v>2972.436375534963</v>
       </c>
       <c r="P26" t="n">
-        <v>4042.479567310801</v>
+        <v>4042.479567310804</v>
       </c>
       <c r="Q26" t="n">
-        <v>4770.510007062173</v>
+        <v>4770.510007062174</v>
       </c>
       <c r="R26" t="n">
         <v>5045.259680131471</v>
       </c>
       <c r="S26" t="n">
-        <v>5000.691908721729</v>
+        <v>5000.691908721728</v>
       </c>
       <c r="T26" t="n">
-        <v>4788.132774114092</v>
+        <v>4788.13277411409</v>
       </c>
       <c r="U26" t="n">
-        <v>4529.047683858646</v>
+        <v>4529.047683858645</v>
       </c>
       <c r="V26" t="n">
-        <v>4166.430733792472</v>
+        <v>4166.430733792471</v>
       </c>
       <c r="W26" t="n">
         <v>3761.575279203505</v>
       </c>
       <c r="X26" t="n">
-        <v>3342.432815782816</v>
+        <v>3342.432815782815</v>
       </c>
       <c r="Y26" t="n">
-        <v>2934.14669208247</v>
+        <v>2934.146692082469</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3908.996639550567</v>
+        <v>597.2963056952829</v>
       </c>
       <c r="C27" t="n">
-        <v>3802.540178387209</v>
+        <v>490.8398445319252</v>
       </c>
       <c r="D27" t="n">
-        <v>3707.449889533762</v>
+        <v>395.7495556784784</v>
       </c>
       <c r="E27" t="n">
-        <v>3613.329474860716</v>
+        <v>301.6291410054321</v>
       </c>
       <c r="F27" t="n">
-        <v>3529.945636476878</v>
+        <v>218.2453026215937</v>
       </c>
       <c r="G27" t="n">
-        <v>3445.478235755774</v>
+        <v>133.7779019004894</v>
       </c>
       <c r="H27" t="n">
-        <v>3412.605527457914</v>
+        <v>100.9051936026294</v>
       </c>
       <c r="I27" t="n">
-        <v>3443.57264132049</v>
+        <v>157.9359806256623</v>
       </c>
       <c r="J27" t="n">
-        <v>3528.548768672558</v>
+        <v>374.8091768023035</v>
       </c>
       <c r="K27" t="n">
-        <v>3673.786505115672</v>
+        <v>520.0469132454162</v>
       </c>
       <c r="L27" t="n">
-        <v>3869.076565213353</v>
+        <v>715.3369733430965</v>
       </c>
       <c r="M27" t="n">
-        <v>4096.970854110294</v>
+        <v>943.231262240036</v>
       </c>
       <c r="N27" t="n">
-        <v>4330.896826713716</v>
+        <v>1177.157234843457</v>
       </c>
       <c r="O27" t="n">
-        <v>4544.893390497555</v>
+        <v>1391.153798627294</v>
       </c>
       <c r="P27" t="n">
-        <v>4716.644499204409</v>
+        <v>1562.904907334148</v>
       </c>
       <c r="Q27" t="n">
-        <v>4989.416308941838</v>
+        <v>1677.715975086555</v>
       </c>
       <c r="R27" t="n">
-        <v>5045.259680131471</v>
+        <v>1733.559346276187</v>
       </c>
       <c r="S27" t="n">
-        <v>4998.849913495796</v>
+        <v>1687.149579640512</v>
       </c>
       <c r="T27" t="n">
-        <v>4872.370200539915</v>
+        <v>1560.669866684632</v>
       </c>
       <c r="U27" t="n">
-        <v>4696.094027817036</v>
+        <v>1384.393693961752</v>
       </c>
       <c r="V27" t="n">
-        <v>4496.976509879035</v>
+        <v>1185.276176023751</v>
       </c>
       <c r="W27" t="n">
-        <v>4311.653755612229</v>
+        <v>999.9534217569453</v>
       </c>
       <c r="X27" t="n">
-        <v>4156.78631985111</v>
+        <v>845.0859859958252</v>
       </c>
       <c r="Y27" t="n">
-        <v>4030.30054063033</v>
+        <v>718.600206775046</v>
       </c>
     </row>
     <row r="28">
@@ -6360,73 +6360,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1149.216945285303</v>
+        <v>1149.216945285304</v>
       </c>
       <c r="C28" t="n">
-        <v>976.6552337685283</v>
+        <v>976.6552337685285</v>
       </c>
       <c r="D28" t="n">
-        <v>810.777240970051</v>
+        <v>810.7772409700513</v>
       </c>
       <c r="E28" t="n">
-        <v>641.0192372207883</v>
+        <v>641.0192372207886</v>
       </c>
       <c r="F28" t="n">
-        <v>464.3121831825446</v>
+        <v>464.3121831825448</v>
       </c>
       <c r="G28" t="n">
-        <v>299.490267849458</v>
+        <v>299.4902678494582</v>
       </c>
       <c r="H28" t="n">
-        <v>166.42840016694</v>
+        <v>166.4284001669402</v>
       </c>
       <c r="I28" t="n">
         <v>100.9051936026294</v>
       </c>
       <c r="J28" t="n">
-        <v>240.7961702322466</v>
+        <v>240.7961702322463</v>
       </c>
       <c r="K28" t="n">
-        <v>603.1614532618842</v>
+        <v>603.1614532618835</v>
       </c>
       <c r="L28" t="n">
-        <v>1133.477913481359</v>
+        <v>1042.615317225943</v>
       </c>
       <c r="M28" t="n">
-        <v>1272.792958911468</v>
+        <v>1620.299852881813</v>
       </c>
       <c r="N28" t="n">
-        <v>1830.441882839219</v>
+        <v>2177.948776809564</v>
       </c>
       <c r="O28" t="n">
-        <v>2356.692585028443</v>
+        <v>2704.199478998787</v>
       </c>
       <c r="P28" t="n">
-        <v>2795.398324523973</v>
+        <v>2795.398324523975</v>
       </c>
       <c r="Q28" t="n">
-        <v>3026.732452825807</v>
+        <v>3026.732452825808</v>
       </c>
       <c r="R28" t="n">
-        <v>3039.645648487598</v>
+        <v>3039.645648487599</v>
       </c>
       <c r="S28" t="n">
-        <v>2893.812120076152</v>
+        <v>2893.812120076153</v>
       </c>
       <c r="T28" t="n">
-        <v>2651.21993757561</v>
+        <v>2651.219937575611</v>
       </c>
       <c r="U28" t="n">
         <v>2372.828901900048</v>
       </c>
       <c r="V28" t="n">
-        <v>2085.873393770478</v>
+        <v>2085.873393770479</v>
       </c>
       <c r="W28" t="n">
         <v>1813.84698935677</v>
       </c>
       <c r="X28" t="n">
-        <v>1568.455234690182</v>
+        <v>1568.455234690183</v>
       </c>
       <c r="Y28" t="n">
         <v>1341.035564004291</v>
@@ -6451,61 +6451,61 @@
         <v>1200.020119113725</v>
       </c>
       <c r="F29" t="n">
-        <v>772.1526895229326</v>
+        <v>772.1526895229327</v>
       </c>
       <c r="G29" t="n">
-        <v>372.4700134904168</v>
+        <v>372.4700134904169</v>
       </c>
       <c r="H29" t="n">
         <v>100.9051936026294</v>
       </c>
       <c r="I29" t="n">
-        <v>165.3043665708231</v>
+        <v>165.3043665708227</v>
       </c>
       <c r="J29" t="n">
-        <v>743.2338437689199</v>
+        <v>743.2338437689187</v>
       </c>
       <c r="K29" t="n">
-        <v>1791.416660931278</v>
+        <v>1791.416660931276</v>
       </c>
       <c r="L29" t="n">
-        <v>2922.390326696692</v>
+        <v>2094.080451863305</v>
       </c>
       <c r="M29" t="n">
-        <v>3217.563388742886</v>
+        <v>2389.253513909498</v>
       </c>
       <c r="N29" t="n">
-        <v>3517.512659526923</v>
+        <v>2689.202784693533</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.746250368356</v>
+        <v>2972.436375534964</v>
       </c>
       <c r="P29" t="n">
-        <v>4042.479567310801</v>
+        <v>4042.479567310805</v>
       </c>
       <c r="Q29" t="n">
-        <v>4770.510007062173</v>
+        <v>4770.510007062175</v>
       </c>
       <c r="R29" t="n">
-        <v>5045.259680131471</v>
+        <v>5045.259680131472</v>
       </c>
       <c r="S29" t="n">
-        <v>5000.691908721728</v>
+        <v>5000.691908721729</v>
       </c>
       <c r="T29" t="n">
-        <v>4788.132774114091</v>
+        <v>4788.132774114092</v>
       </c>
       <c r="U29" t="n">
         <v>4529.047683858646</v>
       </c>
       <c r="V29" t="n">
-        <v>4166.430733792472</v>
+        <v>4166.430733792473</v>
       </c>
       <c r="W29" t="n">
-        <v>3761.575279203505</v>
+        <v>3761.575279203506</v>
       </c>
       <c r="X29" t="n">
-        <v>3342.432815782816</v>
+        <v>3342.432815782817</v>
       </c>
       <c r="Y29" t="n">
         <v>2934.14669208247</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3908.996639550567</v>
+        <v>597.2963056952829</v>
       </c>
       <c r="C30" t="n">
-        <v>3802.540178387209</v>
+        <v>490.8398445319252</v>
       </c>
       <c r="D30" t="n">
-        <v>3707.449889533762</v>
+        <v>395.7495556784784</v>
       </c>
       <c r="E30" t="n">
-        <v>3613.329474860716</v>
+        <v>301.6291410054321</v>
       </c>
       <c r="F30" t="n">
-        <v>3529.945636476878</v>
+        <v>218.2453026215937</v>
       </c>
       <c r="G30" t="n">
-        <v>3445.478235755774</v>
+        <v>133.7779019004894</v>
       </c>
       <c r="H30" t="n">
-        <v>3412.605527457914</v>
+        <v>100.9051936026294</v>
       </c>
       <c r="I30" t="n">
-        <v>3443.57264132049</v>
+        <v>157.9359806256624</v>
       </c>
       <c r="J30" t="n">
-        <v>3686.509510657579</v>
+        <v>242.9121079777304</v>
       </c>
       <c r="K30" t="n">
-        <v>3831.747247100693</v>
+        <v>388.1498444208432</v>
       </c>
       <c r="L30" t="n">
-        <v>4027.037307198374</v>
+        <v>583.4399045185235</v>
       </c>
       <c r="M30" t="n">
-        <v>4254.931596095315</v>
+        <v>811.3341934154629</v>
       </c>
       <c r="N30" t="n">
-        <v>4488.857568698737</v>
+        <v>1045.260166018883</v>
       </c>
       <c r="O30" t="n">
-        <v>4702.854132482576</v>
+        <v>1259.256729802721</v>
       </c>
       <c r="P30" t="n">
-        <v>4874.605241189431</v>
+        <v>1431.007838509575</v>
       </c>
       <c r="Q30" t="n">
-        <v>4989.416308941838</v>
+        <v>1560.543196992215</v>
       </c>
       <c r="R30" t="n">
-        <v>5045.259680131471</v>
+        <v>1733.559346276187</v>
       </c>
       <c r="S30" t="n">
-        <v>4998.849913495796</v>
+        <v>1687.149579640512</v>
       </c>
       <c r="T30" t="n">
-        <v>4872.370200539915</v>
+        <v>1560.669866684632</v>
       </c>
       <c r="U30" t="n">
-        <v>4696.094027817036</v>
+        <v>1384.393693961752</v>
       </c>
       <c r="V30" t="n">
-        <v>4496.976509879035</v>
+        <v>1185.276176023751</v>
       </c>
       <c r="W30" t="n">
-        <v>4311.653755612229</v>
+        <v>999.9534217569453</v>
       </c>
       <c r="X30" t="n">
-        <v>4156.78631985111</v>
+        <v>845.0859859958252</v>
       </c>
       <c r="Y30" t="n">
-        <v>4030.30054063033</v>
+        <v>718.600206775046</v>
       </c>
     </row>
     <row r="31">
@@ -6597,73 +6597,73 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1149.216945285303</v>
+        <v>1149.216945285304</v>
       </c>
       <c r="C31" t="n">
-        <v>976.6552337685283</v>
+        <v>976.6552337685285</v>
       </c>
       <c r="D31" t="n">
-        <v>810.777240970051</v>
+        <v>810.7772409700513</v>
       </c>
       <c r="E31" t="n">
-        <v>641.0192372207883</v>
+        <v>641.0192372207886</v>
       </c>
       <c r="F31" t="n">
-        <v>464.3121831825446</v>
+        <v>464.3121831825448</v>
       </c>
       <c r="G31" t="n">
-        <v>299.490267849458</v>
+        <v>299.4902678494582</v>
       </c>
       <c r="H31" t="n">
-        <v>166.42840016694</v>
+        <v>166.4284001669402</v>
       </c>
       <c r="I31" t="n">
         <v>100.9051936026294</v>
       </c>
       <c r="J31" t="n">
-        <v>154.2164850675567</v>
+        <v>240.7961702322463</v>
       </c>
       <c r="K31" t="n">
-        <v>332.9847379004556</v>
+        <v>603.1614532618835</v>
       </c>
       <c r="L31" t="n">
-        <v>863.3011981199303</v>
+        <v>1133.477913481357</v>
       </c>
       <c r="M31" t="n">
-        <v>1440.985733775801</v>
+        <v>1272.79295891147</v>
       </c>
       <c r="N31" t="n">
-        <v>1998.634657703552</v>
+        <v>1830.441882839221</v>
       </c>
       <c r="O31" t="n">
-        <v>2524.885359892775</v>
+        <v>2356.692585028445</v>
       </c>
       <c r="P31" t="n">
-        <v>2963.591099388306</v>
+        <v>2795.398324523975</v>
       </c>
       <c r="Q31" t="n">
-        <v>3026.732452825807</v>
+        <v>3026.732452825808</v>
       </c>
       <c r="R31" t="n">
-        <v>3039.645648487598</v>
+        <v>3039.645648487599</v>
       </c>
       <c r="S31" t="n">
-        <v>2893.812120076152</v>
+        <v>2893.812120076153</v>
       </c>
       <c r="T31" t="n">
-        <v>2651.21993757561</v>
+        <v>2651.219937575611</v>
       </c>
       <c r="U31" t="n">
         <v>2372.828901900048</v>
       </c>
       <c r="V31" t="n">
-        <v>2085.873393770478</v>
+        <v>2085.873393770479</v>
       </c>
       <c r="W31" t="n">
         <v>1813.84698935677</v>
       </c>
       <c r="X31" t="n">
-        <v>1568.455234690182</v>
+        <v>1568.455234690183</v>
       </c>
       <c r="Y31" t="n">
         <v>1341.035564004291</v>
@@ -6691,40 +6691,40 @@
         <v>772.1526895229326</v>
       </c>
       <c r="G32" t="n">
-        <v>372.4700134904168</v>
+        <v>372.4700134904169</v>
       </c>
       <c r="H32" t="n">
         <v>100.9051936026294</v>
       </c>
       <c r="I32" t="n">
-        <v>165.3043665708231</v>
+        <v>165.3043665708227</v>
       </c>
       <c r="J32" t="n">
-        <v>743.2338437689199</v>
+        <v>307.9791563160009</v>
       </c>
       <c r="K32" t="n">
-        <v>957.0663689731002</v>
+        <v>1356.161973478358</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.344524854186</v>
+        <v>1621.440129359443</v>
       </c>
       <c r="M32" t="n">
-        <v>1517.51758690038</v>
+        <v>1916.613191405635</v>
       </c>
       <c r="N32" t="n">
-        <v>1817.466857684417</v>
+        <v>2216.56246218967</v>
       </c>
       <c r="O32" t="n">
-        <v>2972.436375534959</v>
+        <v>2972.436375534964</v>
       </c>
       <c r="P32" t="n">
-        <v>4042.479567310801</v>
+        <v>4042.479567310805</v>
       </c>
       <c r="Q32" t="n">
-        <v>4770.510007062173</v>
+        <v>4770.510007062175</v>
       </c>
       <c r="R32" t="n">
-        <v>5045.259680131471</v>
+        <v>5045.259680131472</v>
       </c>
       <c r="S32" t="n">
         <v>5000.691908721728</v>
@@ -6758,7 +6758,7 @@
         <v>597.2963056952829</v>
       </c>
       <c r="C33" t="n">
-        <v>490.8398445319251</v>
+        <v>490.8398445319252</v>
       </c>
       <c r="D33" t="n">
         <v>395.7495556784784</v>
@@ -6776,31 +6776,31 @@
         <v>100.9051936026294</v>
       </c>
       <c r="I33" t="n">
-        <v>157.9359806256625</v>
+        <v>157.9359806256624</v>
       </c>
       <c r="J33" t="n">
-        <v>257.6363987079561</v>
+        <v>242.9121079777304</v>
       </c>
       <c r="K33" t="n">
-        <v>402.8741351510697</v>
+        <v>388.1498444208432</v>
       </c>
       <c r="L33" t="n">
-        <v>598.1641952487511</v>
+        <v>583.4399045185235</v>
       </c>
       <c r="M33" t="n">
-        <v>826.0584841456919</v>
+        <v>811.3341934154629</v>
       </c>
       <c r="N33" t="n">
-        <v>1059.984456749114</v>
+        <v>1045.260166018883</v>
       </c>
       <c r="O33" t="n">
-        <v>1273.981020532952</v>
+        <v>1259.256729802721</v>
       </c>
       <c r="P33" t="n">
-        <v>1445.732129239807</v>
+        <v>1431.007838509575</v>
       </c>
       <c r="Q33" t="n">
-        <v>1560.543196992214</v>
+        <v>1560.543196992215</v>
       </c>
       <c r="R33" t="n">
         <v>1733.559346276187</v>
@@ -6834,73 +6834,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1149.216945285303</v>
+        <v>1149.216945285304</v>
       </c>
       <c r="C34" t="n">
-        <v>976.6552337685283</v>
+        <v>976.6552337685285</v>
       </c>
       <c r="D34" t="n">
-        <v>810.777240970051</v>
+        <v>810.7772409700513</v>
       </c>
       <c r="E34" t="n">
-        <v>641.0192372207883</v>
+        <v>641.0192372207886</v>
       </c>
       <c r="F34" t="n">
-        <v>464.3121831825446</v>
+        <v>464.3121831825448</v>
       </c>
       <c r="G34" t="n">
-        <v>299.490267849458</v>
+        <v>299.4902678494582</v>
       </c>
       <c r="H34" t="n">
-        <v>166.42840016694</v>
+        <v>166.4284001669402</v>
       </c>
       <c r="I34" t="n">
         <v>100.9051936026294</v>
       </c>
       <c r="J34" t="n">
-        <v>154.2164850675567</v>
+        <v>154.2164850675564</v>
       </c>
       <c r="K34" t="n">
-        <v>332.9847379004556</v>
+        <v>241.823313526058</v>
       </c>
       <c r="L34" t="n">
-        <v>863.3011981199303</v>
+        <v>772.139773745532</v>
       </c>
       <c r="M34" t="n">
-        <v>1440.985733775801</v>
+        <v>1349.824309401401</v>
       </c>
       <c r="N34" t="n">
-        <v>1998.634657703552</v>
+        <v>1907.473233329152</v>
       </c>
       <c r="O34" t="n">
-        <v>2524.885359892775</v>
+        <v>2433.723935518376</v>
       </c>
       <c r="P34" t="n">
-        <v>2963.591099388306</v>
+        <v>2872.429675013906</v>
       </c>
       <c r="Q34" t="n">
-        <v>3026.732452825807</v>
+        <v>3026.732452825808</v>
       </c>
       <c r="R34" t="n">
-        <v>3039.645648487598</v>
+        <v>3039.645648487599</v>
       </c>
       <c r="S34" t="n">
-        <v>2893.812120076152</v>
+        <v>2893.812120076153</v>
       </c>
       <c r="T34" t="n">
-        <v>2651.21993757561</v>
+        <v>2651.219937575611</v>
       </c>
       <c r="U34" t="n">
         <v>2372.828901900048</v>
       </c>
       <c r="V34" t="n">
-        <v>2085.873393770478</v>
+        <v>2085.873393770479</v>
       </c>
       <c r="W34" t="n">
         <v>1813.84698935677</v>
       </c>
       <c r="X34" t="n">
-        <v>1568.455234690182</v>
+        <v>1568.455234690183</v>
       </c>
       <c r="Y34" t="n">
         <v>1341.035564004291</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1366.009723708471</v>
+        <v>1793.877153299264</v>
       </c>
       <c r="C35" t="n">
-        <v>927.8672508918949</v>
+        <v>1355.734680482687</v>
       </c>
       <c r="D35" t="n">
-        <v>491.9574660663393</v>
+        <v>919.8248956571315</v>
       </c>
       <c r="E35" t="n">
-        <v>58.18272122463444</v>
+        <v>486.0501508154267</v>
       </c>
       <c r="F35" t="n">
-        <v>58.18272122463444</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="G35" t="n">
-        <v>58.18272122463444</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="H35" t="n">
-        <v>58.18272122463444</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="I35" t="n">
-        <v>122.5818941928281</v>
+        <v>122.5818941928278</v>
       </c>
       <c r="J35" t="n">
-        <v>700.5113713909249</v>
+        <v>265.2566839380059</v>
       </c>
       <c r="K35" t="n">
-        <v>914.3438965951052</v>
+        <v>985.2678590928573</v>
       </c>
       <c r="L35" t="n">
-        <v>1179.622052476191</v>
+        <v>1250.546014973942</v>
       </c>
       <c r="M35" t="n">
-        <v>1474.795114522385</v>
+        <v>1545.719077020134</v>
       </c>
       <c r="N35" t="n">
-        <v>1774.744385306422</v>
+        <v>1845.668347804169</v>
       </c>
       <c r="O35" t="n">
-        <v>2057.977976147854</v>
+        <v>2128.9019386456</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.7112930903</v>
+        <v>2370.635255588044</v>
       </c>
       <c r="Q35" t="n">
-        <v>2634.386388162423</v>
+        <v>2634.386388162425</v>
       </c>
       <c r="R35" t="n">
-        <v>2909.136061231722</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="S35" t="n">
-        <v>2909.136061231722</v>
+        <v>2864.568289821981</v>
       </c>
       <c r="T35" t="n">
-        <v>2818.866789103965</v>
+        <v>2652.009155214344</v>
       </c>
       <c r="U35" t="n">
-        <v>2559.781698848519</v>
+        <v>2652.009155214344</v>
       </c>
       <c r="V35" t="n">
-        <v>2197.164748782346</v>
+        <v>2652.009155214344</v>
       </c>
       <c r="W35" t="n">
-        <v>1792.309294193379</v>
+        <v>2652.009155214344</v>
       </c>
       <c r="X35" t="n">
-        <v>1792.309294193379</v>
+        <v>2232.866691793654</v>
       </c>
       <c r="Y35" t="n">
-        <v>1792.309294193379</v>
+        <v>2220.176723784171</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>554.5738333172878</v>
+        <v>554.5738333172879</v>
       </c>
       <c r="C36" t="n">
-        <v>448.1173721539301</v>
+        <v>448.1173721539302</v>
       </c>
       <c r="D36" t="n">
-        <v>353.0270833004834</v>
+        <v>353.0270833004835</v>
       </c>
       <c r="E36" t="n">
-        <v>258.9066686274371</v>
+        <v>258.9066686274372</v>
       </c>
       <c r="F36" t="n">
-        <v>175.5228302435987</v>
+        <v>175.5228302435988</v>
       </c>
       <c r="G36" t="n">
-        <v>91.05542952249439</v>
+        <v>91.05542952249448</v>
       </c>
       <c r="H36" t="n">
-        <v>58.18272122463444</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="I36" t="n">
-        <v>89.14983508720992</v>
+        <v>115.2135082476674</v>
       </c>
       <c r="J36" t="n">
-        <v>332.0867044243008</v>
+        <v>332.0867044243086</v>
       </c>
       <c r="K36" t="n">
-        <v>477.3244408674143</v>
+        <v>477.3244408674213</v>
       </c>
       <c r="L36" t="n">
-        <v>672.6145009650957</v>
+        <v>672.6145009651016</v>
       </c>
       <c r="M36" t="n">
-        <v>900.5087898620365</v>
+        <v>900.508789862041</v>
       </c>
       <c r="N36" t="n">
-        <v>1134.434762465459</v>
+        <v>1134.434762465462</v>
       </c>
       <c r="O36" t="n">
-        <v>1348.431326249297</v>
+        <v>1348.431326249299</v>
       </c>
       <c r="P36" t="n">
-        <v>1520.182434956152</v>
+        <v>1520.182434956153</v>
       </c>
       <c r="Q36" t="n">
-        <v>1634.993502708559</v>
+        <v>1634.99350270856</v>
       </c>
       <c r="R36" t="n">
         <v>1690.836873898192</v>
@@ -7058,10 +7058,10 @@
         <v>957.2309493789503</v>
       </c>
       <c r="X36" t="n">
-        <v>802.3635136178302</v>
+        <v>802.3635136178303</v>
       </c>
       <c r="Y36" t="n">
-        <v>675.877734397051</v>
+        <v>675.8777343970511</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1018.707358029427</v>
+        <v>1040.971266342998</v>
       </c>
       <c r="C37" t="n">
-        <v>846.1456465126518</v>
+        <v>868.4095548262229</v>
       </c>
       <c r="D37" t="n">
-        <v>768.0547685920562</v>
+        <v>702.5315620277456</v>
       </c>
       <c r="E37" t="n">
-        <v>598.2967648427934</v>
+        <v>532.7735582784828</v>
       </c>
       <c r="F37" t="n">
-        <v>421.5897108045496</v>
+        <v>356.0665042402391</v>
       </c>
       <c r="G37" t="n">
-        <v>256.767795471463</v>
+        <v>191.2445889071525</v>
       </c>
       <c r="H37" t="n">
-        <v>123.705927788945</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="I37" t="n">
-        <v>58.18272122463444</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0736978542516</v>
+        <v>198.0736978542513</v>
       </c>
       <c r="K37" t="n">
-        <v>560.4389808838894</v>
+        <v>560.4389808838885</v>
       </c>
       <c r="L37" t="n">
-        <v>1090.755441103364</v>
+        <v>912.1057299700676</v>
       </c>
       <c r="M37" t="n">
-        <v>1668.439976759234</v>
+        <v>1489.790265625937</v>
       </c>
       <c r="N37" t="n">
-        <v>2226.088900686985</v>
+        <v>2047.439189553688</v>
       </c>
       <c r="O37" t="n">
-        <v>2573.689891742908</v>
+        <v>2573.689891742911</v>
       </c>
       <c r="P37" t="n">
-        <v>2664.888737268097</v>
+        <v>2664.888737268099</v>
       </c>
       <c r="Q37" t="n">
-        <v>2896.22286556993</v>
+        <v>2896.222865569932</v>
       </c>
       <c r="R37" t="n">
-        <v>2909.136061231722</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="S37" t="n">
-        <v>2763.302532820276</v>
+        <v>2785.566441133847</v>
       </c>
       <c r="T37" t="n">
-        <v>2520.710350319734</v>
+        <v>2542.974258633305</v>
       </c>
       <c r="U37" t="n">
-        <v>2242.319314644171</v>
+        <v>2264.583222957742</v>
       </c>
       <c r="V37" t="n">
-        <v>1955.363806514602</v>
+        <v>1977.627714828173</v>
       </c>
       <c r="W37" t="n">
-        <v>1683.337402100893</v>
+        <v>1705.601310414464</v>
       </c>
       <c r="X37" t="n">
-        <v>1437.945647434306</v>
+        <v>1460.209555747877</v>
       </c>
       <c r="Y37" t="n">
-        <v>1210.525976748414</v>
+        <v>1232.789885061985</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2031.349904377862</v>
+        <v>2011.192265883732</v>
       </c>
       <c r="C38" t="n">
-        <v>1593.207431561286</v>
+        <v>1573.049793067156</v>
       </c>
       <c r="D38" t="n">
-        <v>1157.29764673573</v>
+        <v>1137.1400082416</v>
       </c>
       <c r="E38" t="n">
-        <v>1157.29764673573</v>
+        <v>703.3652633998954</v>
       </c>
       <c r="F38" t="n">
-        <v>729.4302171449381</v>
+        <v>275.4978338091032</v>
       </c>
       <c r="G38" t="n">
-        <v>329.7475411124223</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="H38" t="n">
-        <v>58.18272122463492</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="I38" t="n">
-        <v>122.5818941928286</v>
+        <v>122.5818941928278</v>
       </c>
       <c r="J38" t="n">
-        <v>700.5113713909254</v>
+        <v>265.2566839380059</v>
       </c>
       <c r="K38" t="n">
-        <v>1067.487337874476</v>
+        <v>479.0892091421851</v>
       </c>
       <c r="L38" t="n">
-        <v>1332.765493755562</v>
+        <v>744.3673650232696</v>
       </c>
       <c r="M38" t="n">
-        <v>1627.938555801756</v>
+        <v>1039.540427069462</v>
       </c>
       <c r="N38" t="n">
-        <v>1927.887826585793</v>
+        <v>1339.489697853497</v>
       </c>
       <c r="O38" t="n">
-        <v>2211.121417427225</v>
+        <v>1622.723288694928</v>
       </c>
       <c r="P38" t="n">
-        <v>2452.854734369671</v>
+        <v>1914.375213007574</v>
       </c>
       <c r="Q38" t="n">
-        <v>2634.386388162448</v>
+        <v>2634.386388162425</v>
       </c>
       <c r="R38" t="n">
-        <v>2909.136061231746</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="S38" t="n">
-        <v>2864.568289822004</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="T38" t="n">
-        <v>2864.568289822004</v>
+        <v>2696.576926624086</v>
       </c>
       <c r="U38" t="n">
-        <v>2864.568289822004</v>
+        <v>2437.49183636864</v>
       </c>
       <c r="V38" t="n">
-        <v>2864.568289822004</v>
+        <v>2437.49183636864</v>
       </c>
       <c r="W38" t="n">
-        <v>2864.568289822004</v>
+        <v>2437.49183636864</v>
       </c>
       <c r="X38" t="n">
-        <v>2457.64947486277</v>
+        <v>2437.49183636864</v>
       </c>
       <c r="Y38" t="n">
-        <v>2457.64947486277</v>
+        <v>2437.49183636864</v>
       </c>
     </row>
     <row r="39">
@@ -7229,55 +7229,55 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>554.5738333172883</v>
+        <v>554.5738333172879</v>
       </c>
       <c r="C39" t="n">
-        <v>448.1173721539306</v>
+        <v>448.1173721539302</v>
       </c>
       <c r="D39" t="n">
-        <v>353.0270833004839</v>
+        <v>353.0270833004835</v>
       </c>
       <c r="E39" t="n">
-        <v>258.9066686274376</v>
+        <v>258.9066686274372</v>
       </c>
       <c r="F39" t="n">
-        <v>175.5228302435992</v>
+        <v>175.5228302435988</v>
       </c>
       <c r="G39" t="n">
-        <v>91.05542952249488</v>
+        <v>91.05542952249448</v>
       </c>
       <c r="H39" t="n">
-        <v>58.18272122463492</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="I39" t="n">
-        <v>89.14983508721041</v>
+        <v>115.2135082476674</v>
       </c>
       <c r="J39" t="n">
-        <v>174.125962439279</v>
+        <v>200.1896355997355</v>
       </c>
       <c r="K39" t="n">
-        <v>319.3636988823925</v>
+        <v>345.4273720428482</v>
       </c>
       <c r="L39" t="n">
-        <v>514.6537589800739</v>
+        <v>540.7174321405284</v>
       </c>
       <c r="M39" t="n">
-        <v>742.5480478770146</v>
+        <v>768.6117210374679</v>
       </c>
       <c r="N39" t="n">
-        <v>976.4740204804367</v>
+        <v>1002.537693640889</v>
       </c>
       <c r="O39" t="n">
-        <v>1190.470584264275</v>
+        <v>1216.534257424726</v>
       </c>
       <c r="P39" t="n">
-        <v>1362.22169297113</v>
+        <v>1388.28536613158</v>
       </c>
       <c r="Q39" t="n">
-        <v>1634.99350270856</v>
+        <v>1517.82072461422</v>
       </c>
       <c r="R39" t="n">
-        <v>1690.836873898193</v>
+        <v>1690.836873898192</v>
       </c>
       <c r="S39" t="n">
         <v>1644.427107262517</v>
@@ -7289,16 +7289,16 @@
         <v>1341.671221583757</v>
       </c>
       <c r="V39" t="n">
-        <v>1142.553703645757</v>
+        <v>1142.553703645756</v>
       </c>
       <c r="W39" t="n">
-        <v>957.2309493789508</v>
+        <v>957.2309493789503</v>
       </c>
       <c r="X39" t="n">
-        <v>802.3635136178307</v>
+        <v>802.3635136178303</v>
       </c>
       <c r="Y39" t="n">
-        <v>675.8777343970514</v>
+        <v>675.8777343970511</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1018.707358029451</v>
+        <v>1018.707358029428</v>
       </c>
       <c r="C40" t="n">
-        <v>846.1456465126759</v>
+        <v>846.1456465126527</v>
       </c>
       <c r="D40" t="n">
-        <v>680.2676537141986</v>
+        <v>680.2676537141754</v>
       </c>
       <c r="E40" t="n">
-        <v>510.5096499649358</v>
+        <v>510.5096499649126</v>
       </c>
       <c r="F40" t="n">
-        <v>333.802595926692</v>
+        <v>333.8025959266688</v>
       </c>
       <c r="G40" t="n">
-        <v>168.9806805936054</v>
+        <v>256.7677954714632</v>
       </c>
       <c r="H40" t="n">
-        <v>58.18272122463492</v>
+        <v>123.7059277889452</v>
       </c>
       <c r="I40" t="n">
-        <v>58.18272122463492</v>
+        <v>58.18272122463446</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0736978542521</v>
+        <v>198.0736978542513</v>
       </c>
       <c r="K40" t="n">
-        <v>493.7662429611846</v>
+        <v>560.4389808838885</v>
       </c>
       <c r="L40" t="n">
-        <v>1024.082703180659</v>
+        <v>912.1057299700676</v>
       </c>
       <c r="M40" t="n">
-        <v>1142.283371655616</v>
+        <v>1489.790265625937</v>
       </c>
       <c r="N40" t="n">
-        <v>1699.932295583368</v>
+        <v>2047.439189553688</v>
       </c>
       <c r="O40" t="n">
-        <v>2226.182997772591</v>
+        <v>2573.689891742911</v>
       </c>
       <c r="P40" t="n">
-        <v>2664.888737268122</v>
+        <v>2664.888737268099</v>
       </c>
       <c r="Q40" t="n">
-        <v>2896.222865569955</v>
+        <v>2896.222865569932</v>
       </c>
       <c r="R40" t="n">
-        <v>2909.136061231746</v>
+        <v>2909.136061231723</v>
       </c>
       <c r="S40" t="n">
-        <v>2763.3025328203</v>
+        <v>2763.302532820277</v>
       </c>
       <c r="T40" t="n">
-        <v>2520.710350319758</v>
+        <v>2520.710350319735</v>
       </c>
       <c r="U40" t="n">
-        <v>2242.319314644195</v>
+        <v>2242.319314644172</v>
       </c>
       <c r="V40" t="n">
-        <v>1955.363806514626</v>
+        <v>1955.363806514603</v>
       </c>
       <c r="W40" t="n">
-        <v>1683.337402100917</v>
+        <v>1683.337402100894</v>
       </c>
       <c r="X40" t="n">
-        <v>1437.94564743433</v>
+        <v>1437.945647434307</v>
       </c>
       <c r="Y40" t="n">
-        <v>1210.525976748438</v>
+        <v>1210.525976748415</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>897.0069893815391</v>
+        <v>1583.654497965559</v>
       </c>
       <c r="C41" t="n">
-        <v>897.0069893815391</v>
+        <v>1583.654497965559</v>
       </c>
       <c r="D41" t="n">
-        <v>876.1798932522158</v>
+        <v>1147.744713140003</v>
       </c>
       <c r="E41" t="n">
-        <v>442.4051484105111</v>
+        <v>713.9699682982982</v>
       </c>
       <c r="F41" t="n">
-        <v>442.4051484105111</v>
+        <v>713.9699682982982</v>
       </c>
       <c r="G41" t="n">
-        <v>42.72247237799524</v>
+        <v>314.2872922657824</v>
       </c>
       <c r="H41" t="n">
-        <v>42.72247237799524</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="I41" t="n">
-        <v>107.1216453461893</v>
+        <v>107.121645346188</v>
       </c>
       <c r="J41" t="n">
-        <v>249.7964350913683</v>
+        <v>249.7964350913662</v>
       </c>
       <c r="K41" t="n">
-        <v>463.6289602955487</v>
+        <v>463.6289602955453</v>
       </c>
       <c r="L41" t="n">
-        <v>728.907116176635</v>
+        <v>728.9071161766298</v>
       </c>
       <c r="M41" t="n">
-        <v>1024.080178222829</v>
+        <v>1024.080178222822</v>
       </c>
       <c r="N41" t="n">
-        <v>1324.029449006865</v>
+        <v>1324.029449006857</v>
       </c>
       <c r="O41" t="n">
-        <v>1607.263039848298</v>
+        <v>1607.263039848288</v>
       </c>
       <c r="P41" t="n">
-        <v>1848.996356790744</v>
+        <v>1848.996356790732</v>
       </c>
       <c r="Q41" t="n">
-        <v>2030.528010583521</v>
+        <v>2030.528010583508</v>
       </c>
       <c r="R41" t="n">
-        <v>2136.123618899762</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="S41" t="n">
-        <v>2136.123618899762</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="T41" t="n">
-        <v>1923.564484292125</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="U41" t="n">
-        <v>1664.479394036679</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="V41" t="n">
-        <v>1301.862443970506</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="W41" t="n">
-        <v>897.0069893815391</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="X41" t="n">
-        <v>897.0069893815391</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="Y41" t="n">
-        <v>897.0069893815391</v>
+        <v>2009.954068450466</v>
       </c>
     </row>
     <row r="42">
@@ -7466,58 +7466,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>539.1135844706487</v>
+        <v>539.1135844706484</v>
       </c>
       <c r="C42" t="n">
-        <v>432.6571233072909</v>
+        <v>432.6571233072907</v>
       </c>
       <c r="D42" t="n">
-        <v>337.5668344538442</v>
+        <v>337.566834453844</v>
       </c>
       <c r="E42" t="n">
-        <v>243.4464197807979</v>
+        <v>243.4464197807977</v>
       </c>
       <c r="F42" t="n">
-        <v>160.0625813969595</v>
+        <v>160.0625813969593</v>
       </c>
       <c r="G42" t="n">
-        <v>75.5951806758552</v>
+        <v>75.595180675855</v>
       </c>
       <c r="H42" t="n">
-        <v>42.72247237799524</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="I42" t="n">
-        <v>73.68958624057072</v>
+        <v>99.75325940102789</v>
       </c>
       <c r="J42" t="n">
-        <v>316.6264555776617</v>
+        <v>184.729386753096</v>
       </c>
       <c r="K42" t="n">
-        <v>461.8641920207752</v>
+        <v>329.9671231962087</v>
       </c>
       <c r="L42" t="n">
-        <v>657.1542521184566</v>
+        <v>525.2571832938889</v>
       </c>
       <c r="M42" t="n">
-        <v>885.0485410153974</v>
+        <v>753.1514721908284</v>
       </c>
       <c r="N42" t="n">
-        <v>1118.974513618819</v>
+        <v>987.0774447942491</v>
       </c>
       <c r="O42" t="n">
-        <v>1332.971077402658</v>
+        <v>1201.074008578086</v>
       </c>
       <c r="P42" t="n">
-        <v>1504.722186109513</v>
+        <v>1372.82511728494</v>
       </c>
       <c r="Q42" t="n">
-        <v>1619.53325386192</v>
+        <v>1502.36047576758</v>
       </c>
       <c r="R42" t="n">
         <v>1675.376625051553</v>
       </c>
       <c r="S42" t="n">
-        <v>1628.966858415878</v>
+        <v>1628.966858415877</v>
       </c>
       <c r="T42" t="n">
         <v>1502.487145459997</v>
@@ -7529,13 +7529,13 @@
         <v>1127.093454799117</v>
       </c>
       <c r="W42" t="n">
-        <v>941.7707005323111</v>
+        <v>941.7707005323109</v>
       </c>
       <c r="X42" t="n">
-        <v>786.9032647711911</v>
+        <v>786.9032647711908</v>
       </c>
       <c r="Y42" t="n">
-        <v>660.4174855504118</v>
+        <v>660.4174855504116</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.2123087275827</v>
+        <v>437.513534416441</v>
       </c>
       <c r="C43" t="n">
-        <v>753.6505972108076</v>
+        <v>437.513534416441</v>
       </c>
       <c r="D43" t="n">
-        <v>587.7726044123303</v>
+        <v>437.513534416441</v>
       </c>
       <c r="E43" t="n">
-        <v>418.0146006630676</v>
+        <v>437.513534416441</v>
       </c>
       <c r="F43" t="n">
-        <v>241.3075466248238</v>
+        <v>260.8064803781972</v>
       </c>
       <c r="G43" t="n">
-        <v>241.3075466248238</v>
+        <v>95.98456504511057</v>
       </c>
       <c r="H43" t="n">
-        <v>108.2456789423059</v>
+        <v>95.98456504511057</v>
       </c>
       <c r="I43" t="n">
-        <v>42.72247237799524</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="J43" t="n">
-        <v>182.6134490076124</v>
+        <v>96.03376384292197</v>
       </c>
       <c r="K43" t="n">
-        <v>273.1317522791614</v>
+        <v>183.6405923014235</v>
       </c>
       <c r="L43" t="n">
-        <v>385.2383307306751</v>
+        <v>295.7471707529365</v>
       </c>
       <c r="M43" t="n">
-        <v>913.9289264083661</v>
+        <v>824.4377664306244</v>
       </c>
       <c r="N43" t="n">
-        <v>1442.619522086057</v>
+        <v>1353.128362108312</v>
       </c>
       <c r="O43" t="n">
-        <v>1968.870224275281</v>
+        <v>1879.379064297535</v>
       </c>
       <c r="P43" t="n">
-        <v>2060.06906980047</v>
+        <v>2060.069069800457</v>
       </c>
       <c r="Q43" t="n">
-        <v>2123.21042323797</v>
+        <v>2123.210423237958</v>
       </c>
       <c r="R43" t="n">
-        <v>2136.123618899762</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="S43" t="n">
-        <v>1990.290090488316</v>
+        <v>1990.290090488303</v>
       </c>
       <c r="T43" t="n">
-        <v>1747.697907987774</v>
+        <v>1747.697907987761</v>
       </c>
       <c r="U43" t="n">
-        <v>1747.697907987774</v>
+        <v>1469.306872312198</v>
       </c>
       <c r="V43" t="n">
-        <v>1747.697907987774</v>
+        <v>1182.351364182629</v>
       </c>
       <c r="W43" t="n">
-        <v>1590.842352799049</v>
+        <v>910.3249597689203</v>
       </c>
       <c r="X43" t="n">
-        <v>1345.450598132462</v>
+        <v>664.9332051023327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1118.03092744657</v>
+        <v>437.513534416441</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1344.64215961092</v>
+        <v>470.5899019687872</v>
       </c>
       <c r="C44" t="n">
-        <v>906.499686794343</v>
+        <v>470.5899019687872</v>
       </c>
       <c r="D44" t="n">
-        <v>470.5899019687875</v>
+        <v>470.5899019687872</v>
       </c>
       <c r="E44" t="n">
-        <v>470.5899019687875</v>
+        <v>470.5899019687872</v>
       </c>
       <c r="F44" t="n">
-        <v>42.72247237799524</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="G44" t="n">
-        <v>42.72247237799524</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="H44" t="n">
-        <v>42.72247237799524</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="I44" t="n">
-        <v>107.1216453461893</v>
+        <v>107.1216453461883</v>
       </c>
       <c r="J44" t="n">
-        <v>249.7964350913683</v>
+        <v>249.7964350913664</v>
       </c>
       <c r="K44" t="n">
-        <v>463.6289602955487</v>
+        <v>463.6289602955455</v>
       </c>
       <c r="L44" t="n">
-        <v>728.9071161766348</v>
+        <v>728.9071161766302</v>
       </c>
       <c r="M44" t="n">
-        <v>1024.080178222829</v>
+        <v>1024.080178222822</v>
       </c>
       <c r="N44" t="n">
-        <v>1324.029449006865</v>
+        <v>1324.029449006857</v>
       </c>
       <c r="O44" t="n">
-        <v>1607.263039848298</v>
+        <v>1607.263039848288</v>
       </c>
       <c r="P44" t="n">
-        <v>1848.996356790743</v>
+        <v>1848.996356790733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2030.52801058352</v>
+        <v>2030.528010583508</v>
       </c>
       <c r="R44" t="n">
-        <v>2136.123618899762</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="S44" t="n">
-        <v>2091.555847490019</v>
+        <v>2091.555847490006</v>
       </c>
       <c r="T44" t="n">
-        <v>2091.555847490019</v>
+        <v>2091.555847490006</v>
       </c>
       <c r="U44" t="n">
-        <v>2091.555847490019</v>
+        <v>2091.555847490006</v>
       </c>
       <c r="V44" t="n">
-        <v>2091.555847490019</v>
+        <v>2091.555847490006</v>
       </c>
       <c r="W44" t="n">
-        <v>1686.700392901053</v>
+        <v>1724.318059574731</v>
       </c>
       <c r="X44" t="n">
-        <v>1344.64215961092</v>
+        <v>1305.175596154042</v>
       </c>
       <c r="Y44" t="n">
-        <v>1344.64215961092</v>
+        <v>896.889472453695</v>
       </c>
     </row>
     <row r="45">
@@ -7703,58 +7703,58 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>539.1135844706487</v>
+        <v>539.1135844706484</v>
       </c>
       <c r="C45" t="n">
-        <v>432.6571233072909</v>
+        <v>432.6571233072907</v>
       </c>
       <c r="D45" t="n">
-        <v>337.5668344538442</v>
+        <v>337.566834453844</v>
       </c>
       <c r="E45" t="n">
-        <v>243.4464197807979</v>
+        <v>243.4464197807977</v>
       </c>
       <c r="F45" t="n">
-        <v>160.0625813969595</v>
+        <v>160.0625813969593</v>
       </c>
       <c r="G45" t="n">
-        <v>75.5951806758552</v>
+        <v>75.595180675855</v>
       </c>
       <c r="H45" t="n">
-        <v>42.72247237799524</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="I45" t="n">
-        <v>73.68958624057072</v>
+        <v>99.75325940102789</v>
       </c>
       <c r="J45" t="n">
-        <v>316.6264555776617</v>
+        <v>184.729386753096</v>
       </c>
       <c r="K45" t="n">
-        <v>461.8641920207752</v>
+        <v>329.9671231962087</v>
       </c>
       <c r="L45" t="n">
-        <v>657.1542521184566</v>
+        <v>525.2571832938889</v>
       </c>
       <c r="M45" t="n">
-        <v>885.0485410153974</v>
+        <v>753.1514721908283</v>
       </c>
       <c r="N45" t="n">
-        <v>1118.974513618819</v>
+        <v>987.0774447942489</v>
       </c>
       <c r="O45" t="n">
-        <v>1332.971077402658</v>
+        <v>1201.074008578086</v>
       </c>
       <c r="P45" t="n">
-        <v>1504.722186109513</v>
+        <v>1372.82511728494</v>
       </c>
       <c r="Q45" t="n">
-        <v>1619.53325386192</v>
+        <v>1502.360475767581</v>
       </c>
       <c r="R45" t="n">
         <v>1675.376625051553</v>
       </c>
       <c r="S45" t="n">
-        <v>1628.966858415878</v>
+        <v>1628.966858415877</v>
       </c>
       <c r="T45" t="n">
         <v>1502.487145459997</v>
@@ -7766,13 +7766,13 @@
         <v>1127.093454799117</v>
       </c>
       <c r="W45" t="n">
-        <v>941.7707005323111</v>
+        <v>941.7707005323109</v>
       </c>
       <c r="X45" t="n">
-        <v>786.9032647711911</v>
+        <v>786.9032647711908</v>
       </c>
       <c r="Y45" t="n">
-        <v>660.4174855504118</v>
+        <v>660.4174855504116</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>389.1875301655018</v>
+        <v>634.1206266094418</v>
       </c>
       <c r="C46" t="n">
-        <v>389.1875301655018</v>
+        <v>608.7035908231325</v>
       </c>
       <c r="D46" t="n">
-        <v>389.1875301655018</v>
+        <v>442.8255980246551</v>
       </c>
       <c r="E46" t="n">
-        <v>219.429526416239</v>
+        <v>273.0675942753924</v>
       </c>
       <c r="F46" t="n">
-        <v>42.72247237799524</v>
+        <v>273.0675942753924</v>
       </c>
       <c r="G46" t="n">
-        <v>42.72247237799524</v>
+        <v>108.2456789423057</v>
       </c>
       <c r="H46" t="n">
-        <v>42.72247237799524</v>
+        <v>108.2456789423057</v>
       </c>
       <c r="I46" t="n">
-        <v>42.72247237799524</v>
+        <v>42.72247237799498</v>
       </c>
       <c r="J46" t="n">
-        <v>182.6134490076124</v>
+        <v>96.03376384292196</v>
       </c>
       <c r="K46" t="n">
-        <v>544.97873203725</v>
+        <v>183.6405923014235</v>
       </c>
       <c r="L46" t="n">
-        <v>1073.669327714941</v>
+        <v>295.7471707529365</v>
       </c>
       <c r="M46" t="n">
-        <v>1231.198981707058</v>
+        <v>824.4377664306244</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.589102477165</v>
+        <v>1353.128362108312</v>
       </c>
       <c r="O46" t="n">
-        <v>1453.170555440607</v>
+        <v>1879.379064297535</v>
       </c>
       <c r="P46" t="n">
-        <v>1891.876294936137</v>
+        <v>2060.069069800457</v>
       </c>
       <c r="Q46" t="n">
-        <v>2123.21042323797</v>
+        <v>2123.210423237958</v>
       </c>
       <c r="R46" t="n">
-        <v>2136.123618899762</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="S46" t="n">
-        <v>1990.290090488316</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="T46" t="n">
-        <v>1747.697907987774</v>
+        <v>2136.123618899749</v>
       </c>
       <c r="U46" t="n">
-        <v>1469.306872312211</v>
+        <v>1857.732583224186</v>
       </c>
       <c r="V46" t="n">
-        <v>1182.351364182641</v>
+        <v>1570.777075094617</v>
       </c>
       <c r="W46" t="n">
-        <v>910.324959768933</v>
+        <v>1298.750670680908</v>
       </c>
       <c r="X46" t="n">
-        <v>664.9332051023455</v>
+        <v>1053.358916014321</v>
       </c>
       <c r="Y46" t="n">
-        <v>581.006148884489</v>
+        <v>825.939245328429</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>133.2293624490644</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.5563050353849</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>159.9696696106873</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>420.7919365920959</v>
       </c>
       <c r="M13" t="n">
         <v>414.6362901037692</v>
       </c>
       <c r="N13" t="n">
-        <v>417.4752271793753</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>90.39511108861984</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>133.2293624490644</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>159.5563050353853</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>63.2433997240804</v>
+        <v>90.39511108861961</v>
       </c>
       <c r="L16" t="n">
-        <v>420.7919365920958</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>414.6362901037691</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>417.4752271793753</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.6903447266359</v>
+        <v>154.6903447266259</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.5563050353849</v>
+        <v>14.87302093963035</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>379.3798638736571</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>97.07953882611173</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>459.326282094714</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>50.42283572748374</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>543.9187084465434</v>
+        <v>135.0152620793037</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>133.2293624490642</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.5563050353849</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>97.07953882611116</v>
+        <v>3.408393430828426</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
@@ -9576,10 +9576,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>37.76326772822631</v>
+        <v>37.7632677282254</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>159.5563050353846</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>14.87302093963035</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,10 +9798,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>330.6538237500475</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
@@ -9813,10 +9813,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.628019403749022</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>37.76326772821358</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>37.76326772822631</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>133.2293624490638</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.5563050353749</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>330.6538237500474</v>
       </c>
       <c r="M28" t="n">
-        <v>21.32765349005263</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10117,7 +10117,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>874.4399089740687</v>
+        <v>37.76326772822722</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>159.5563050353749</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>14.87302093962967</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>92.0822468428251</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>21.32765349005717</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>880.5413404132423</v>
+        <v>477.4144671756194</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10427,7 +10427,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>14.87302093962123</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>14.87302093962967</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>92.0822468428251</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>92.08224684282959</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>511.2915656067396</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.6903447266127</v>
+        <v>83.04997856727823</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>159.556305035376</v>
+        <v>133.2293624490638</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>241.9799703380468</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645587</v>
@@ -10758,7 +10758,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>243.4540788812938</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>154.690344726637</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10840,10 +10840,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>50.42283572747669</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>543.9187084465409</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.556305035376</v>
+        <v>14.87302093962944</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,13 +10983,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>210.1875925741721</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>241.9799703380468</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -10998,7 +10998,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>159.5563050353761</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>14.87302093962967</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.9408836495424</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>414.6362901037717</v>
+        <v>414.6362901037692</v>
       </c>
       <c r="N43" t="n">
-        <v>417.475227179378</v>
+        <v>417.4752271793753</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>90.39511108861984</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>159.5563050353761</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>14.87302093963035</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>420.7919365920984</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>39.72624799713094</v>
+        <v>414.6362901037692</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>417.4752271793753</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>90.3951110886203</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>254.9002956498393</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.6858492721906</v>
+        <v>43.21003542260752</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>268.8491716889096</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.12209369564516</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>210.4335432615606</v>
@@ -23317,13 +23317,13 @@
         <v>256.494239352891</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4581658858729156</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>131.7312490056928</v>
       </c>
       <c r="I13" t="n">
-        <v>64.86797449866764</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>144.3751931273316</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>29.73699260464167</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>38.34914185233782</v>
       </c>
       <c r="G14" t="n">
-        <v>32.04208977229615</v>
+        <v>395.6858492721906</v>
       </c>
       <c r="H14" t="n">
         <v>268.8491716889096</v>
@@ -23563,7 +23563,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23664,10 +23664,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>143.8697517639164</v>
+        <v>26.22129498862645</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.1736961797558</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>144.3751931273316</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>106.3407702425166</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.6858492721906</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>268.8491716889096</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>210.4335432615606</v>
       </c>
       <c r="U17" t="n">
-        <v>256.494239352891</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>192.8020824250303</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>86.90924372909238</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>86.90924372910271</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>283.0816099365612</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>367.2280710217631</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>268.8491716889096</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>44.12209369564516</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>210.4335432615606</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>86.90924372909295</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>86.90924372910249</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.6858492721906</v>
       </c>
       <c r="H35" t="n">
-        <v>268.8491716889095</v>
+        <v>268.8491716889096</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.12209369564493</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>121.0669638550809</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.494239352891</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>391.6401941339549</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>86.90924372910297</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>64.86797449866764</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>22.04126923043438</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>180.5438878135666</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>268.8491716889096</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T38" t="n">
-        <v>210.4335432615605</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.494239352891</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25456,7 +25456,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>12.10141197684106</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>86.90924372910223</v>
       </c>
       <c r="H40" t="n">
-        <v>22.041269230412</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>64.86797449866751</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>410.9318618092698</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>268.8491716889095</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>44.12209369564493</v>
+        <v>44.12209369564516</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.4335432615606</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.494239352891</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>279.2954075185532</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.1736961797558</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.7312490056928</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>12.1385027582232</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6071253188071</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>114.0191407327341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25882,7 +25882,7 @@
         <v>395.6858492721906</v>
       </c>
       <c r="H44" t="n">
-        <v>268.8491716889095</v>
+        <v>268.8491716889096</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.4335432615605</v>
+        <v>210.4335432615606</v>
       </c>
       <c r="U44" t="n">
         <v>256.494239352891</v>
@@ -25927,13 +25927,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>37.24149000695434</v>
       </c>
       <c r="X44" t="n">
-        <v>76.31338782925064</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>145.673228973161</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.1736961797558</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.7312490056927</v>
+        <v>131.7312490056928</v>
       </c>
       <c r="I46" t="n">
-        <v>64.86797449866751</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>144.3751931273316</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.1662606755367</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>142.0576883233549</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>370298.1969207373</v>
+        <v>370298.1969207359</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>370298.1969207372</v>
+        <v>370298.1969207359</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>584649.0601352094</v>
+        <v>584649.0601352099</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>584649.0601352094</v>
+        <v>584649.0601352099</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>584649.0601352094</v>
+        <v>584649.0601352099</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>370298.1969207353</v>
+        <v>370298.1969207359</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>370298.1969207383</v>
+        <v>370298.1969207359</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>270602.74811132</v>
+        <v>270602.7481113189</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>270602.74811132</v>
+        <v>270602.7481113189</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>457961.5537785679</v>
       </c>
       <c r="D2" t="n">
-        <v>457961.5537785679</v>
+        <v>457961.5537785678</v>
       </c>
       <c r="E2" t="n">
         <v>254971.0895530574</v>
@@ -26328,16 +26328,16 @@
         <v>254971.0895530574</v>
       </c>
       <c r="G2" t="n">
-        <v>322956.4748291095</v>
+        <v>322956.4748291086</v>
       </c>
       <c r="H2" t="n">
-        <v>322956.4748291095</v>
+        <v>322956.4748291086</v>
       </c>
       <c r="I2" t="n">
         <v>469128.9049041074</v>
       </c>
       <c r="J2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041075</v>
       </c>
       <c r="K2" t="n">
         <v>469128.9049041074</v>
@@ -26346,16 +26346,16 @@
         <v>469128.9049041075</v>
       </c>
       <c r="M2" t="n">
-        <v>322956.4748291086</v>
+        <v>322956.4748291087</v>
       </c>
       <c r="N2" t="n">
-        <v>322956.4748291108</v>
+        <v>322956.4748291087</v>
       </c>
       <c r="O2" t="n">
-        <v>254971.0895530586</v>
+        <v>254971.0895530575</v>
       </c>
       <c r="P2" t="n">
-        <v>254971.0895530586</v>
+        <v>254971.0895530574</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498789.9876771858</v>
+        <v>498789.9876771857</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>52967.7788141405</v>
+        <v>52967.77881413978</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142010.0322153594</v>
+        <v>142010.0322153599</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>16065.14476258424</v>
+        <v>16065.14476258425</v>
       </c>
       <c r="F4" t="n">
         <v>16065.14476258424</v>
       </c>
       <c r="G4" t="n">
-        <v>47894.1210342007</v>
+        <v>47894.12103420029</v>
       </c>
       <c r="H4" t="n">
-        <v>47894.12103420067</v>
+        <v>47894.12103420028</v>
       </c>
       <c r="I4" t="n">
         <v>116328.2232979483</v>
       </c>
       <c r="J4" t="n">
-        <v>116328.2232979477</v>
+        <v>116328.2232979483</v>
       </c>
       <c r="K4" t="n">
-        <v>116328.2232979477</v>
+        <v>116328.2232979484</v>
       </c>
       <c r="L4" t="n">
-        <v>116328.2232979478</v>
+        <v>116328.2232979484</v>
       </c>
       <c r="M4" t="n">
-        <v>47894.12103419965</v>
+        <v>47894.12103420027</v>
       </c>
       <c r="N4" t="n">
-        <v>47894.12103420066</v>
+        <v>47894.12103420027</v>
       </c>
       <c r="O4" t="n">
-        <v>16065.14476258417</v>
+        <v>16065.14476258423</v>
       </c>
       <c r="P4" t="n">
-        <v>16065.14476258417</v>
+        <v>16065.14476258425</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>41676.92906371818</v>
       </c>
       <c r="G5" t="n">
-        <v>53426.71818716434</v>
+        <v>53426.71818716417</v>
       </c>
       <c r="H5" t="n">
-        <v>53426.71818716433</v>
+        <v>53426.71818716417</v>
       </c>
       <c r="I5" t="n">
+        <v>85895.79719444034</v>
+      </c>
+      <c r="J5" t="n">
         <v>85895.79719444035</v>
       </c>
-      <c r="J5" t="n">
-        <v>85895.79719444041</v>
-      </c>
       <c r="K5" t="n">
-        <v>85895.79719444041</v>
+        <v>85895.79719444037</v>
       </c>
       <c r="L5" t="n">
-        <v>85895.79719444041</v>
+        <v>85895.79719444037</v>
       </c>
       <c r="M5" t="n">
-        <v>53426.71818716423</v>
+        <v>53426.71818716418</v>
       </c>
       <c r="N5" t="n">
-        <v>53426.7181871646</v>
+        <v>53426.71818716418</v>
       </c>
       <c r="O5" t="n">
-        <v>41676.92906371843</v>
+        <v>41676.92906371818</v>
       </c>
       <c r="P5" t="n">
-        <v>41676.92906371843</v>
+        <v>41676.92906371818</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125603.2374667351</v>
+        <v>125571.3307492334</v>
       </c>
       <c r="C6" t="n">
-        <v>125603.2374667351</v>
+        <v>125571.3307492334</v>
       </c>
       <c r="D6" t="n">
-        <v>125603.2374667351</v>
+        <v>125571.3307492333</v>
       </c>
       <c r="E6" t="n">
-        <v>-301560.9719504308</v>
+        <v>-302172.8514228623</v>
       </c>
       <c r="F6" t="n">
-        <v>197229.0157267551</v>
+        <v>196617.1362543234</v>
       </c>
       <c r="G6" t="n">
-        <v>168667.856793604</v>
+        <v>168250.2212791043</v>
       </c>
       <c r="H6" t="n">
-        <v>221635.6356077445</v>
+        <v>221218.0000932441</v>
       </c>
       <c r="I6" t="n">
-        <v>124894.8521963594</v>
+        <v>124894.8521963588</v>
       </c>
       <c r="J6" t="n">
-        <v>266904.8844117194</v>
+        <v>266904.8844117188</v>
       </c>
       <c r="K6" t="n">
-        <v>266904.8844117193</v>
+        <v>266904.8844117186</v>
       </c>
       <c r="L6" t="n">
-        <v>266904.8844117194</v>
+        <v>266904.8844117188</v>
       </c>
       <c r="M6" t="n">
-        <v>221635.6356077447</v>
+        <v>221218.0000932442</v>
       </c>
       <c r="N6" t="n">
-        <v>221635.6356077455</v>
+        <v>221218.0000932442</v>
       </c>
       <c r="O6" t="n">
-        <v>197229.0157267561</v>
+        <v>196617.1362543235</v>
       </c>
       <c r="P6" t="n">
-        <v>197229.015726756</v>
+        <v>196617.1362543234</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>422.378442956055</v>
+        <v>422.3784429560549</v>
       </c>
       <c r="F3" t="n">
         <v>422.3784429560549</v>
       </c>
       <c r="G3" t="n">
+        <v>422.3784429560549</v>
+      </c>
+      <c r="H3" t="n">
+        <v>422.3784429560549</v>
+      </c>
+      <c r="I3" t="n">
+        <v>422.3784429560549</v>
+      </c>
+      <c r="J3" t="n">
         <v>422.378442956055</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>422.378442956055</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>422.378442956055</v>
       </c>
-      <c r="J3" t="n">
-        <v>422.3784429560575</v>
-      </c>
-      <c r="K3" t="n">
-        <v>422.3784429560574</v>
-      </c>
-      <c r="L3" t="n">
-        <v>422.3784429560574</v>
-      </c>
       <c r="M3" t="n">
-        <v>422.3784429560574</v>
+        <v>422.378442956055</v>
       </c>
       <c r="N3" t="n">
-        <v>422.3784429560574</v>
+        <v>422.378442956055</v>
       </c>
       <c r="O3" t="n">
-        <v>422.3784429560574</v>
+        <v>422.378442956055</v>
       </c>
       <c r="P3" t="n">
-        <v>422.3784429560574</v>
+        <v>422.3784429560549</v>
       </c>
     </row>
     <row r="4">
@@ -26804,10 +26804,10 @@
         <v>534.0309047249372</v>
       </c>
       <c r="G4" t="n">
-        <v>727.2840153079333</v>
+        <v>727.2840153079306</v>
       </c>
       <c r="H4" t="n">
-        <v>727.2840153079331</v>
+        <v>727.2840153079306</v>
       </c>
       <c r="I4" t="n">
         <v>1261.314920032868</v>
@@ -26822,16 +26822,16 @@
         <v>1261.314920032868</v>
       </c>
       <c r="M4" t="n">
-        <v>727.2840153079305</v>
+        <v>727.2840153079308</v>
       </c>
       <c r="N4" t="n">
-        <v>727.2840153079366</v>
+        <v>727.2840153079308</v>
       </c>
       <c r="O4" t="n">
-        <v>534.0309047249405</v>
+        <v>534.0309047249373</v>
       </c>
       <c r="P4" t="n">
-        <v>534.0309047249405</v>
+        <v>534.0309047249373</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>422.378442956055</v>
+        <v>422.3784429560549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>193.2531105829961</v>
+        <v>193.2531105829935</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>534.0309047249347</v>
+        <v>534.0309047249369</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>193.2531105829961</v>
+        <v>193.2531105829935</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31755,28 +31755,28 @@
         <v>1.698003790778109</v>
       </c>
       <c r="H11" t="n">
-        <v>17.38968132230632</v>
+        <v>17.38968132230631</v>
       </c>
       <c r="I11" t="n">
-        <v>65.46229114397312</v>
+        <v>65.4622911439731</v>
       </c>
       <c r="J11" t="n">
         <v>144.1159492375537</v>
       </c>
       <c r="K11" t="n">
-        <v>215.9924497011911</v>
+        <v>215.992449701191</v>
       </c>
       <c r="L11" t="n">
         <v>267.9577332132167</v>
       </c>
       <c r="M11" t="n">
-        <v>298.1546081274669</v>
+        <v>298.1546081274668</v>
       </c>
       <c r="N11" t="n">
         <v>302.9790613980152</v>
       </c>
       <c r="O11" t="n">
-        <v>286.0945362034654</v>
+        <v>286.0945362034653</v>
       </c>
       <c r="P11" t="n">
         <v>244.1750676186307</v>
@@ -31788,10 +31788,10 @@
         <v>106.6622306224655</v>
       </c>
       <c r="S11" t="n">
-        <v>38.69326138235621</v>
+        <v>38.6932613823562</v>
       </c>
       <c r="T11" t="n">
-        <v>7.433011594131177</v>
+        <v>7.433011594131176</v>
       </c>
       <c r="U11" t="n">
         <v>0.1358403032622487</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.908512122584722</v>
+        <v>0.9085121225847219</v>
       </c>
       <c r="H12" t="n">
-        <v>8.774314447068239</v>
+        <v>8.774314447068237</v>
       </c>
       <c r="I12" t="n">
         <v>31.2799129925003</v>
       </c>
       <c r="J12" t="n">
-        <v>85.83447207279606</v>
+        <v>85.83447207279605</v>
       </c>
       <c r="K12" t="n">
         <v>146.7047842859724</v>
@@ -31852,7 +31852,7 @@
         <v>230.1962514110499</v>
       </c>
       <c r="N12" t="n">
-        <v>236.2888612155765</v>
+        <v>236.2888612155764</v>
       </c>
       <c r="O12" t="n">
         <v>216.1581452361992</v>
@@ -31864,13 +31864,13 @@
         <v>115.9707755074814</v>
       </c>
       <c r="R12" t="n">
-        <v>56.40744564609356</v>
+        <v>56.40744564609355</v>
       </c>
       <c r="S12" t="n">
-        <v>16.875214206782</v>
+        <v>16.87521420678199</v>
       </c>
       <c r="T12" t="n">
-        <v>3.661941406383155</v>
+        <v>3.661941406383154</v>
       </c>
       <c r="U12" t="n">
         <v>0.05977053438057384</v>
@@ -31913,16 +31913,16 @@
         <v>0.7616660446748531</v>
       </c>
       <c r="H13" t="n">
-        <v>6.771903560836427</v>
+        <v>6.771903560836426</v>
       </c>
       <c r="I13" t="n">
         <v>22.90537523440377</v>
       </c>
       <c r="J13" t="n">
-        <v>53.84978935851212</v>
+        <v>53.84978935851211</v>
       </c>
       <c r="K13" t="n">
-        <v>88.49174591767837</v>
+        <v>88.49174591767836</v>
       </c>
       <c r="L13" t="n">
         <v>113.2389681328414</v>
@@ -31937,22 +31937,22 @@
         <v>107.6580332964056</v>
       </c>
       <c r="P13" t="n">
-        <v>92.12004598503857</v>
+        <v>92.12004598503856</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.7791448863643</v>
+        <v>63.77914488636429</v>
       </c>
       <c r="R13" t="n">
-        <v>34.2472750632893</v>
+        <v>34.24727506328929</v>
       </c>
       <c r="S13" t="n">
-        <v>13.27376188765176</v>
+        <v>13.27376188765175</v>
       </c>
       <c r="T13" t="n">
-        <v>3.254391281792554</v>
+        <v>3.254391281792553</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04154542061862841</v>
+        <v>0.0415454206186284</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32229,28 +32229,28 @@
         <v>1.698003790778109</v>
       </c>
       <c r="H17" t="n">
-        <v>17.38968132230632</v>
+        <v>17.38968132230631</v>
       </c>
       <c r="I17" t="n">
-        <v>65.46229114397312</v>
+        <v>65.4622911439731</v>
       </c>
       <c r="J17" t="n">
         <v>144.1159492375537</v>
       </c>
       <c r="K17" t="n">
-        <v>215.9924497011911</v>
+        <v>215.992449701191</v>
       </c>
       <c r="L17" t="n">
         <v>267.9577332132167</v>
       </c>
       <c r="M17" t="n">
-        <v>298.1546081274669</v>
+        <v>298.1546081274668</v>
       </c>
       <c r="N17" t="n">
         <v>302.9790613980152</v>
       </c>
       <c r="O17" t="n">
-        <v>286.0945362034654</v>
+        <v>286.0945362034653</v>
       </c>
       <c r="P17" t="n">
         <v>244.1750676186307</v>
@@ -32262,10 +32262,10 @@
         <v>106.6622306224655</v>
       </c>
       <c r="S17" t="n">
-        <v>38.69326138235621</v>
+        <v>38.6932613823562</v>
       </c>
       <c r="T17" t="n">
-        <v>7.433011594131177</v>
+        <v>7.433011594131176</v>
       </c>
       <c r="U17" t="n">
         <v>0.1358403032622487</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.908512122584722</v>
+        <v>0.9085121225847219</v>
       </c>
       <c r="H18" t="n">
-        <v>8.774314447068239</v>
+        <v>8.774314447068237</v>
       </c>
       <c r="I18" t="n">
         <v>31.2799129925003</v>
       </c>
       <c r="J18" t="n">
-        <v>85.83447207279606</v>
+        <v>85.83447207279605</v>
       </c>
       <c r="K18" t="n">
         <v>146.7047842859724</v>
@@ -32326,7 +32326,7 @@
         <v>230.1962514110499</v>
       </c>
       <c r="N18" t="n">
-        <v>236.2888612155765</v>
+        <v>236.2888612155764</v>
       </c>
       <c r="O18" t="n">
         <v>216.1581452361992</v>
@@ -32338,13 +32338,13 @@
         <v>115.9707755074814</v>
       </c>
       <c r="R18" t="n">
-        <v>56.40744564609356</v>
+        <v>56.40744564609355</v>
       </c>
       <c r="S18" t="n">
-        <v>16.875214206782</v>
+        <v>16.87521420678199</v>
       </c>
       <c r="T18" t="n">
-        <v>3.661941406383155</v>
+        <v>3.661941406383154</v>
       </c>
       <c r="U18" t="n">
         <v>0.05977053438057384</v>
@@ -32387,16 +32387,16 @@
         <v>0.7616660446748531</v>
       </c>
       <c r="H19" t="n">
-        <v>6.771903560836427</v>
+        <v>6.771903560836426</v>
       </c>
       <c r="I19" t="n">
         <v>22.90537523440377</v>
       </c>
       <c r="J19" t="n">
-        <v>53.84978935851212</v>
+        <v>53.84978935851211</v>
       </c>
       <c r="K19" t="n">
-        <v>88.49174591767837</v>
+        <v>88.49174591767836</v>
       </c>
       <c r="L19" t="n">
         <v>113.2389681328414</v>
@@ -32411,22 +32411,22 @@
         <v>107.6580332964056</v>
       </c>
       <c r="P19" t="n">
-        <v>92.12004598503857</v>
+        <v>92.12004598503856</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.7791448863643</v>
+        <v>63.77914488636429</v>
       </c>
       <c r="R19" t="n">
-        <v>34.2472750632893</v>
+        <v>34.24727506328929</v>
       </c>
       <c r="S19" t="n">
-        <v>13.27376188765176</v>
+        <v>13.27376188765175</v>
       </c>
       <c r="T19" t="n">
-        <v>3.254391281792554</v>
+        <v>3.254391281792553</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04154542061862841</v>
+        <v>0.0415454206186284</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,28 +32466,28 @@
         <v>1.698003790778109</v>
       </c>
       <c r="H20" t="n">
-        <v>17.38968132230632</v>
+        <v>17.38968132230631</v>
       </c>
       <c r="I20" t="n">
-        <v>65.46229114397312</v>
+        <v>65.4622911439731</v>
       </c>
       <c r="J20" t="n">
         <v>144.1159492375537</v>
       </c>
       <c r="K20" t="n">
-        <v>215.9924497011911</v>
+        <v>215.992449701191</v>
       </c>
       <c r="L20" t="n">
         <v>267.9577332132167</v>
       </c>
       <c r="M20" t="n">
-        <v>298.1546081274669</v>
+        <v>298.1546081274668</v>
       </c>
       <c r="N20" t="n">
         <v>302.9790613980152</v>
       </c>
       <c r="O20" t="n">
-        <v>286.0945362034654</v>
+        <v>286.0945362034653</v>
       </c>
       <c r="P20" t="n">
         <v>244.1750676186307</v>
@@ -32499,10 +32499,10 @@
         <v>106.6622306224655</v>
       </c>
       <c r="S20" t="n">
-        <v>38.69326138235621</v>
+        <v>38.6932613823562</v>
       </c>
       <c r="T20" t="n">
-        <v>7.433011594131177</v>
+        <v>7.433011594131176</v>
       </c>
       <c r="U20" t="n">
         <v>0.1358403032622487</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.908512122584722</v>
+        <v>0.9085121225847219</v>
       </c>
       <c r="H21" t="n">
-        <v>8.774314447068239</v>
+        <v>8.774314447068237</v>
       </c>
       <c r="I21" t="n">
         <v>31.2799129925003</v>
       </c>
       <c r="J21" t="n">
-        <v>85.83447207279606</v>
+        <v>85.83447207279605</v>
       </c>
       <c r="K21" t="n">
         <v>146.7047842859724</v>
@@ -32563,7 +32563,7 @@
         <v>230.1962514110499</v>
       </c>
       <c r="N21" t="n">
-        <v>236.2888612155765</v>
+        <v>236.2888612155764</v>
       </c>
       <c r="O21" t="n">
         <v>216.1581452361992</v>
@@ -32575,13 +32575,13 @@
         <v>115.9707755074814</v>
       </c>
       <c r="R21" t="n">
-        <v>56.40744564609356</v>
+        <v>56.40744564609355</v>
       </c>
       <c r="S21" t="n">
-        <v>16.875214206782</v>
+        <v>16.87521420678199</v>
       </c>
       <c r="T21" t="n">
-        <v>3.661941406383155</v>
+        <v>3.661941406383154</v>
       </c>
       <c r="U21" t="n">
         <v>0.05977053438057384</v>
@@ -32624,16 +32624,16 @@
         <v>0.7616660446748531</v>
       </c>
       <c r="H22" t="n">
-        <v>6.771903560836427</v>
+        <v>6.771903560836426</v>
       </c>
       <c r="I22" t="n">
         <v>22.90537523440377</v>
       </c>
       <c r="J22" t="n">
-        <v>53.84978935851212</v>
+        <v>53.84978935851211</v>
       </c>
       <c r="K22" t="n">
-        <v>88.49174591767837</v>
+        <v>88.49174591767836</v>
       </c>
       <c r="L22" t="n">
         <v>113.2389681328414</v>
@@ -32648,22 +32648,22 @@
         <v>107.6580332964056</v>
       </c>
       <c r="P22" t="n">
-        <v>92.12004598503857</v>
+        <v>92.12004598503856</v>
       </c>
       <c r="Q22" t="n">
-        <v>63.7791448863643</v>
+        <v>63.77914488636429</v>
       </c>
       <c r="R22" t="n">
-        <v>34.2472750632893</v>
+        <v>34.24727506328929</v>
       </c>
       <c r="S22" t="n">
-        <v>13.27376188765176</v>
+        <v>13.27376188765175</v>
       </c>
       <c r="T22" t="n">
-        <v>3.254391281792554</v>
+        <v>3.254391281792553</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04154542061862841</v>
+        <v>0.0415454206186284</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,28 +32703,28 @@
         <v>1.698003790778109</v>
       </c>
       <c r="H23" t="n">
-        <v>17.38968132230632</v>
+        <v>17.38968132230631</v>
       </c>
       <c r="I23" t="n">
-        <v>65.46229114397312</v>
+        <v>65.4622911439731</v>
       </c>
       <c r="J23" t="n">
         <v>144.1159492375537</v>
       </c>
       <c r="K23" t="n">
-        <v>215.9924497011911</v>
+        <v>215.992449701191</v>
       </c>
       <c r="L23" t="n">
         <v>267.9577332132167</v>
       </c>
       <c r="M23" t="n">
-        <v>298.1546081274669</v>
+        <v>298.1546081274668</v>
       </c>
       <c r="N23" t="n">
         <v>302.9790613980152</v>
       </c>
       <c r="O23" t="n">
-        <v>286.0945362034654</v>
+        <v>286.0945362034653</v>
       </c>
       <c r="P23" t="n">
         <v>244.1750676186307</v>
@@ -32736,10 +32736,10 @@
         <v>106.6622306224655</v>
       </c>
       <c r="S23" t="n">
-        <v>38.69326138235621</v>
+        <v>38.6932613823562</v>
       </c>
       <c r="T23" t="n">
-        <v>7.433011594131177</v>
+        <v>7.433011594131176</v>
       </c>
       <c r="U23" t="n">
         <v>0.1358403032622487</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.908512122584722</v>
+        <v>0.9085121225847219</v>
       </c>
       <c r="H24" t="n">
-        <v>8.774314447068239</v>
+        <v>8.774314447068237</v>
       </c>
       <c r="I24" t="n">
         <v>31.2799129925003</v>
       </c>
       <c r="J24" t="n">
-        <v>85.83447207279606</v>
+        <v>85.83447207279605</v>
       </c>
       <c r="K24" t="n">
         <v>146.7047842859724</v>
@@ -32800,7 +32800,7 @@
         <v>230.1962514110499</v>
       </c>
       <c r="N24" t="n">
-        <v>236.2888612155765</v>
+        <v>236.2888612155764</v>
       </c>
       <c r="O24" t="n">
         <v>216.1581452361992</v>
@@ -32812,13 +32812,13 @@
         <v>115.9707755074814</v>
       </c>
       <c r="R24" t="n">
-        <v>56.40744564609356</v>
+        <v>56.40744564609355</v>
       </c>
       <c r="S24" t="n">
-        <v>16.875214206782</v>
+        <v>16.87521420678199</v>
       </c>
       <c r="T24" t="n">
-        <v>3.661941406383155</v>
+        <v>3.661941406383154</v>
       </c>
       <c r="U24" t="n">
         <v>0.05977053438057384</v>
@@ -32861,16 +32861,16 @@
         <v>0.7616660446748531</v>
       </c>
       <c r="H25" t="n">
-        <v>6.771903560836427</v>
+        <v>6.771903560836426</v>
       </c>
       <c r="I25" t="n">
         <v>22.90537523440377</v>
       </c>
       <c r="J25" t="n">
-        <v>53.84978935851212</v>
+        <v>53.84978935851211</v>
       </c>
       <c r="K25" t="n">
-        <v>88.49174591767837</v>
+        <v>88.49174591767836</v>
       </c>
       <c r="L25" t="n">
         <v>113.2389681328414</v>
@@ -32885,22 +32885,22 @@
         <v>107.6580332964056</v>
       </c>
       <c r="P25" t="n">
-        <v>92.12004598503857</v>
+        <v>92.12004598503856</v>
       </c>
       <c r="Q25" t="n">
-        <v>63.7791448863643</v>
+        <v>63.77914488636429</v>
       </c>
       <c r="R25" t="n">
-        <v>34.2472750632893</v>
+        <v>34.24727506328929</v>
       </c>
       <c r="S25" t="n">
-        <v>13.27376188765176</v>
+        <v>13.27376188765175</v>
       </c>
       <c r="T25" t="n">
-        <v>3.254391281792554</v>
+        <v>3.254391281792553</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04154542061862841</v>
+        <v>0.0415454206186284</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.698003790778119</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H26" t="n">
-        <v>17.38968132230642</v>
+        <v>17.38968132230632</v>
       </c>
       <c r="I26" t="n">
-        <v>65.4622911439735</v>
+        <v>65.46229114397312</v>
       </c>
       <c r="J26" t="n">
-        <v>144.1159492375545</v>
+        <v>144.1159492375537</v>
       </c>
       <c r="K26" t="n">
-        <v>215.9924497011924</v>
+        <v>215.9924497011911</v>
       </c>
       <c r="L26" t="n">
-        <v>267.9577332132183</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M26" t="n">
-        <v>298.1546081274686</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N26" t="n">
-        <v>302.979061398017</v>
+        <v>302.9790613980152</v>
       </c>
       <c r="O26" t="n">
-        <v>286.094536203467</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P26" t="n">
-        <v>244.1750676186322</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q26" t="n">
-        <v>183.3653068613908</v>
+        <v>183.3653068613897</v>
       </c>
       <c r="R26" t="n">
-        <v>106.6622306224661</v>
+        <v>106.6622306224655</v>
       </c>
       <c r="S26" t="n">
-        <v>38.69326138235643</v>
+        <v>38.69326138235621</v>
       </c>
       <c r="T26" t="n">
-        <v>7.433011594131221</v>
+        <v>7.433011594131177</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1358403032622495</v>
+        <v>0.1358403032622487</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9085121225847275</v>
+        <v>0.908512122584722</v>
       </c>
       <c r="H27" t="n">
-        <v>8.77431444706829</v>
+        <v>8.774314447068239</v>
       </c>
       <c r="I27" t="n">
-        <v>31.27991299250049</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J27" t="n">
-        <v>85.83447207279656</v>
+        <v>85.83447207279606</v>
       </c>
       <c r="K27" t="n">
-        <v>146.7047842859733</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L27" t="n">
-        <v>197.262686967355</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M27" t="n">
-        <v>230.1962514110513</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N27" t="n">
-        <v>236.2888612155779</v>
+        <v>236.2888612155765</v>
       </c>
       <c r="O27" t="n">
-        <v>216.1581452362005</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P27" t="n">
-        <v>173.4859683907626</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q27" t="n">
-        <v>115.9707755074821</v>
+        <v>115.9707755074814</v>
       </c>
       <c r="R27" t="n">
-        <v>56.40744564609389</v>
+        <v>56.40744564609356</v>
       </c>
       <c r="S27" t="n">
-        <v>16.8752142067821</v>
+        <v>16.875214206782</v>
       </c>
       <c r="T27" t="n">
-        <v>3.661941406383177</v>
+        <v>3.661941406383155</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0597705343805742</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7616660446748577</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H28" t="n">
-        <v>6.771903560836467</v>
+        <v>6.771903560836427</v>
       </c>
       <c r="I28" t="n">
-        <v>22.90537523440391</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J28" t="n">
-        <v>53.84978935851243</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K28" t="n">
-        <v>88.4917459176789</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L28" t="n">
-        <v>113.238968132842</v>
+        <v>113.2389681328414</v>
       </c>
       <c r="M28" t="n">
-        <v>119.3946146211688</v>
+        <v>119.3946146211681</v>
       </c>
       <c r="N28" t="n">
-        <v>116.5556775455626</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O28" t="n">
-        <v>107.6580332964063</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P28" t="n">
-        <v>92.12004598503911</v>
+        <v>92.12004598503857</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.77914488636468</v>
+        <v>63.7791448863643</v>
       </c>
       <c r="R28" t="n">
-        <v>34.2472750632895</v>
+        <v>34.2472750632893</v>
       </c>
       <c r="S28" t="n">
-        <v>13.27376188765183</v>
+        <v>13.27376188765176</v>
       </c>
       <c r="T28" t="n">
-        <v>3.254391281792573</v>
+        <v>3.254391281792554</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04154542061862865</v>
+        <v>0.04154542061862841</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.698003790778119</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H29" t="n">
-        <v>17.38968132230642</v>
+        <v>17.38968132230632</v>
       </c>
       <c r="I29" t="n">
-        <v>65.4622911439735</v>
+        <v>65.46229114397312</v>
       </c>
       <c r="J29" t="n">
-        <v>144.1159492375545</v>
+        <v>144.1159492375537</v>
       </c>
       <c r="K29" t="n">
-        <v>215.9924497011923</v>
+        <v>215.9924497011911</v>
       </c>
       <c r="L29" t="n">
-        <v>267.9577332132183</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M29" t="n">
-        <v>298.1546081274686</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N29" t="n">
-        <v>302.9790613980169</v>
+        <v>302.9790613980152</v>
       </c>
       <c r="O29" t="n">
-        <v>286.094536203467</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P29" t="n">
-        <v>244.1750676186322</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q29" t="n">
-        <v>183.3653068613907</v>
+        <v>183.3653068613897</v>
       </c>
       <c r="R29" t="n">
-        <v>106.6622306224661</v>
+        <v>106.6622306224655</v>
       </c>
       <c r="S29" t="n">
-        <v>38.69326138235643</v>
+        <v>38.69326138235621</v>
       </c>
       <c r="T29" t="n">
-        <v>7.43301159413122</v>
+        <v>7.433011594131177</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1358403032622495</v>
+        <v>0.1358403032622487</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9085121225847274</v>
+        <v>0.908512122584722</v>
       </c>
       <c r="H30" t="n">
-        <v>8.774314447068289</v>
+        <v>8.774314447068239</v>
       </c>
       <c r="I30" t="n">
-        <v>31.27991299250048</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J30" t="n">
-        <v>85.83447207279656</v>
+        <v>85.83447207279606</v>
       </c>
       <c r="K30" t="n">
-        <v>146.7047842859733</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L30" t="n">
-        <v>197.262686967355</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M30" t="n">
-        <v>230.1962514110513</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N30" t="n">
-        <v>236.2888612155778</v>
+        <v>236.2888612155765</v>
       </c>
       <c r="O30" t="n">
-        <v>216.1581452362005</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P30" t="n">
-        <v>173.4859683907625</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q30" t="n">
-        <v>115.970775507482</v>
+        <v>115.9707755074814</v>
       </c>
       <c r="R30" t="n">
-        <v>56.40744564609388</v>
+        <v>56.40744564609356</v>
       </c>
       <c r="S30" t="n">
-        <v>16.87521420678209</v>
+        <v>16.875214206782</v>
       </c>
       <c r="T30" t="n">
-        <v>3.661941406383176</v>
+        <v>3.661941406383155</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05977053438057419</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7616660446748575</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H31" t="n">
-        <v>6.771903560836466</v>
+        <v>6.771903560836427</v>
       </c>
       <c r="I31" t="n">
-        <v>22.90537523440391</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J31" t="n">
-        <v>53.84978935851242</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K31" t="n">
-        <v>88.49174591767888</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L31" t="n">
-        <v>113.238968132842</v>
+        <v>113.2389681328414</v>
       </c>
       <c r="M31" t="n">
-        <v>119.3946146211688</v>
+        <v>119.3946146211681</v>
       </c>
       <c r="N31" t="n">
-        <v>116.5556775455626</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O31" t="n">
-        <v>107.6580332964063</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P31" t="n">
-        <v>92.1200459850391</v>
+        <v>92.12004598503857</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.77914488636467</v>
+        <v>63.7791448863643</v>
       </c>
       <c r="R31" t="n">
-        <v>34.2472750632895</v>
+        <v>34.2472750632893</v>
       </c>
       <c r="S31" t="n">
-        <v>13.27376188765183</v>
+        <v>13.27376188765176</v>
       </c>
       <c r="T31" t="n">
-        <v>3.254391281792572</v>
+        <v>3.254391281792554</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04154542061862864</v>
+        <v>0.04154542061862841</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.698003790778119</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H32" t="n">
-        <v>17.38968132230642</v>
+        <v>17.38968132230632</v>
       </c>
       <c r="I32" t="n">
-        <v>65.4622911439735</v>
+        <v>65.46229114397312</v>
       </c>
       <c r="J32" t="n">
-        <v>144.1159492375545</v>
+        <v>144.1159492375537</v>
       </c>
       <c r="K32" t="n">
-        <v>215.9924497011923</v>
+        <v>215.9924497011911</v>
       </c>
       <c r="L32" t="n">
-        <v>267.9577332132183</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M32" t="n">
-        <v>298.1546081274686</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N32" t="n">
-        <v>302.9790613980169</v>
+        <v>302.9790613980152</v>
       </c>
       <c r="O32" t="n">
-        <v>286.094536203467</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P32" t="n">
-        <v>244.1750676186322</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.3653068613907</v>
+        <v>183.3653068613897</v>
       </c>
       <c r="R32" t="n">
-        <v>106.6622306224661</v>
+        <v>106.6622306224655</v>
       </c>
       <c r="S32" t="n">
-        <v>38.69326138235643</v>
+        <v>38.69326138235621</v>
       </c>
       <c r="T32" t="n">
-        <v>7.43301159413122</v>
+        <v>7.433011594131177</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1358403032622495</v>
+        <v>0.1358403032622487</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9085121225847274</v>
+        <v>0.908512122584722</v>
       </c>
       <c r="H33" t="n">
-        <v>8.774314447068289</v>
+        <v>8.774314447068239</v>
       </c>
       <c r="I33" t="n">
-        <v>31.27991299250048</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J33" t="n">
-        <v>85.83447207279656</v>
+        <v>85.83447207279606</v>
       </c>
       <c r="K33" t="n">
-        <v>146.7047842859733</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L33" t="n">
-        <v>197.262686967355</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M33" t="n">
-        <v>230.1962514110513</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N33" t="n">
-        <v>236.2888612155778</v>
+        <v>236.2888612155765</v>
       </c>
       <c r="O33" t="n">
-        <v>216.1581452362005</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P33" t="n">
-        <v>173.4859683907625</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q33" t="n">
-        <v>115.970775507482</v>
+        <v>115.9707755074814</v>
       </c>
       <c r="R33" t="n">
-        <v>56.40744564609388</v>
+        <v>56.40744564609356</v>
       </c>
       <c r="S33" t="n">
-        <v>16.87521420678209</v>
+        <v>16.875214206782</v>
       </c>
       <c r="T33" t="n">
-        <v>3.661941406383176</v>
+        <v>3.661941406383155</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05977053438057419</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7616660446748575</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H34" t="n">
-        <v>6.771903560836466</v>
+        <v>6.771903560836427</v>
       </c>
       <c r="I34" t="n">
-        <v>22.90537523440391</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J34" t="n">
-        <v>53.84978935851242</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K34" t="n">
-        <v>88.49174591767888</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L34" t="n">
-        <v>113.238968132842</v>
+        <v>113.2389681328414</v>
       </c>
       <c r="M34" t="n">
-        <v>119.3946146211688</v>
+        <v>119.3946146211681</v>
       </c>
       <c r="N34" t="n">
-        <v>116.5556775455626</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O34" t="n">
-        <v>107.6580332964063</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P34" t="n">
-        <v>92.1200459850391</v>
+        <v>92.12004598503857</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.77914488636467</v>
+        <v>63.7791448863643</v>
       </c>
       <c r="R34" t="n">
-        <v>34.2472750632895</v>
+        <v>34.2472750632893</v>
       </c>
       <c r="S34" t="n">
-        <v>13.27376188765183</v>
+        <v>13.27376188765176</v>
       </c>
       <c r="T34" t="n">
-        <v>3.254391281792572</v>
+        <v>3.254391281792554</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04154542061862864</v>
+        <v>0.04154542061862841</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.698003790778119</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H35" t="n">
-        <v>17.38968132230642</v>
+        <v>17.38968132230632</v>
       </c>
       <c r="I35" t="n">
-        <v>65.4622911439735</v>
+        <v>65.46229114397312</v>
       </c>
       <c r="J35" t="n">
-        <v>144.1159492375545</v>
+        <v>144.1159492375537</v>
       </c>
       <c r="K35" t="n">
-        <v>215.9924497011923</v>
+        <v>215.9924497011911</v>
       </c>
       <c r="L35" t="n">
-        <v>267.9577332132183</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M35" t="n">
-        <v>298.1546081274686</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N35" t="n">
-        <v>302.9790613980169</v>
+        <v>302.9790613980152</v>
       </c>
       <c r="O35" t="n">
-        <v>286.094536203467</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P35" t="n">
-        <v>244.1750676186322</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q35" t="n">
-        <v>183.3653068613907</v>
+        <v>183.3653068613897</v>
       </c>
       <c r="R35" t="n">
-        <v>106.6622306224661</v>
+        <v>106.6622306224655</v>
       </c>
       <c r="S35" t="n">
-        <v>38.69326138235643</v>
+        <v>38.69326138235621</v>
       </c>
       <c r="T35" t="n">
-        <v>7.43301159413122</v>
+        <v>7.433011594131177</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1358403032622495</v>
+        <v>0.1358403032622487</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9085121225847274</v>
+        <v>0.908512122584722</v>
       </c>
       <c r="H36" t="n">
-        <v>8.774314447068289</v>
+        <v>8.774314447068239</v>
       </c>
       <c r="I36" t="n">
-        <v>31.27991299250048</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J36" t="n">
-        <v>85.83447207279656</v>
+        <v>85.83447207279606</v>
       </c>
       <c r="K36" t="n">
-        <v>146.7047842859733</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L36" t="n">
-        <v>197.262686967355</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M36" t="n">
-        <v>230.1962514110513</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N36" t="n">
-        <v>236.2888612155778</v>
+        <v>236.2888612155765</v>
       </c>
       <c r="O36" t="n">
-        <v>216.1581452362005</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P36" t="n">
-        <v>173.4859683907625</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q36" t="n">
-        <v>115.970775507482</v>
+        <v>115.9707755074814</v>
       </c>
       <c r="R36" t="n">
-        <v>56.40744564609388</v>
+        <v>56.40744564609356</v>
       </c>
       <c r="S36" t="n">
-        <v>16.87521420678209</v>
+        <v>16.875214206782</v>
       </c>
       <c r="T36" t="n">
-        <v>3.661941406383176</v>
+        <v>3.661941406383155</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05977053438057419</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7616660446748575</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H37" t="n">
-        <v>6.771903560836466</v>
+        <v>6.771903560836427</v>
       </c>
       <c r="I37" t="n">
-        <v>22.90537523440391</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J37" t="n">
-        <v>53.84978935851242</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K37" t="n">
-        <v>88.49174591767888</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L37" t="n">
-        <v>113.238968132842</v>
+        <v>113.2389681328414</v>
       </c>
       <c r="M37" t="n">
-        <v>119.3946146211688</v>
+        <v>119.3946146211681</v>
       </c>
       <c r="N37" t="n">
-        <v>116.5556775455626</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O37" t="n">
-        <v>107.6580332964063</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P37" t="n">
-        <v>92.1200459850391</v>
+        <v>92.12004598503857</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.77914488636467</v>
+        <v>63.7791448863643</v>
       </c>
       <c r="R37" t="n">
-        <v>34.2472750632895</v>
+        <v>34.2472750632893</v>
       </c>
       <c r="S37" t="n">
-        <v>13.27376188765183</v>
+        <v>13.27376188765176</v>
       </c>
       <c r="T37" t="n">
-        <v>3.254391281792572</v>
+        <v>3.254391281792554</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04154542061862864</v>
+        <v>0.04154542061862841</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.698003790778119</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H38" t="n">
-        <v>17.38968132230642</v>
+        <v>17.38968132230632</v>
       </c>
       <c r="I38" t="n">
-        <v>65.4622911439735</v>
+        <v>65.46229114397312</v>
       </c>
       <c r="J38" t="n">
-        <v>144.1159492375545</v>
+        <v>144.1159492375537</v>
       </c>
       <c r="K38" t="n">
-        <v>215.9924497011923</v>
+        <v>215.9924497011911</v>
       </c>
       <c r="L38" t="n">
-        <v>267.9577332132183</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M38" t="n">
-        <v>298.1546081274686</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N38" t="n">
-        <v>302.9790613980169</v>
+        <v>302.9790613980152</v>
       </c>
       <c r="O38" t="n">
-        <v>286.094536203467</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P38" t="n">
-        <v>244.1750676186322</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q38" t="n">
-        <v>183.3653068613907</v>
+        <v>183.3653068613897</v>
       </c>
       <c r="R38" t="n">
-        <v>106.6622306224661</v>
+        <v>106.6622306224655</v>
       </c>
       <c r="S38" t="n">
-        <v>38.69326138235643</v>
+        <v>38.69326138235621</v>
       </c>
       <c r="T38" t="n">
-        <v>7.43301159413122</v>
+        <v>7.433011594131177</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1358403032622495</v>
+        <v>0.1358403032622487</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9085121225847274</v>
+        <v>0.908512122584722</v>
       </c>
       <c r="H39" t="n">
-        <v>8.774314447068289</v>
+        <v>8.774314447068239</v>
       </c>
       <c r="I39" t="n">
-        <v>31.27991299250048</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J39" t="n">
-        <v>85.83447207279656</v>
+        <v>85.83447207279606</v>
       </c>
       <c r="K39" t="n">
-        <v>146.7047842859733</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L39" t="n">
-        <v>197.262686967355</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M39" t="n">
-        <v>230.1962514110513</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N39" t="n">
-        <v>236.2888612155778</v>
+        <v>236.2888612155765</v>
       </c>
       <c r="O39" t="n">
-        <v>216.1581452362005</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P39" t="n">
-        <v>173.4859683907625</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q39" t="n">
-        <v>115.970775507482</v>
+        <v>115.9707755074814</v>
       </c>
       <c r="R39" t="n">
-        <v>56.40744564609388</v>
+        <v>56.40744564609356</v>
       </c>
       <c r="S39" t="n">
-        <v>16.87521420678209</v>
+        <v>16.875214206782</v>
       </c>
       <c r="T39" t="n">
-        <v>3.661941406383176</v>
+        <v>3.661941406383155</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05977053438057419</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7616660446748575</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H40" t="n">
-        <v>6.771903560836466</v>
+        <v>6.771903560836427</v>
       </c>
       <c r="I40" t="n">
-        <v>22.90537523440391</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J40" t="n">
-        <v>53.84978935851242</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K40" t="n">
-        <v>88.49174591767888</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L40" t="n">
-        <v>113.238968132842</v>
+        <v>113.2389681328414</v>
       </c>
       <c r="M40" t="n">
-        <v>119.3946146211688</v>
+        <v>119.3946146211681</v>
       </c>
       <c r="N40" t="n">
-        <v>116.5556775455626</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O40" t="n">
-        <v>107.6580332964063</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P40" t="n">
-        <v>92.1200459850391</v>
+        <v>92.12004598503857</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.77914488636467</v>
+        <v>63.7791448863643</v>
       </c>
       <c r="R40" t="n">
-        <v>34.2472750632895</v>
+        <v>34.2472750632893</v>
       </c>
       <c r="S40" t="n">
-        <v>13.27376188765183</v>
+        <v>13.27376188765176</v>
       </c>
       <c r="T40" t="n">
-        <v>3.254391281792572</v>
+        <v>3.254391281792554</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04154542061862864</v>
+        <v>0.04154542061862841</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.698003790778119</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H41" t="n">
-        <v>17.38968132230642</v>
+        <v>17.38968132230632</v>
       </c>
       <c r="I41" t="n">
-        <v>65.4622911439735</v>
+        <v>65.46229114397312</v>
       </c>
       <c r="J41" t="n">
-        <v>144.1159492375545</v>
+        <v>144.1159492375537</v>
       </c>
       <c r="K41" t="n">
-        <v>215.9924497011923</v>
+        <v>215.9924497011911</v>
       </c>
       <c r="L41" t="n">
-        <v>267.9577332132183</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M41" t="n">
-        <v>298.1546081274686</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N41" t="n">
-        <v>302.9790613980169</v>
+        <v>302.9790613980152</v>
       </c>
       <c r="O41" t="n">
-        <v>286.094536203467</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P41" t="n">
-        <v>244.1750676186322</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q41" t="n">
-        <v>183.3653068613907</v>
+        <v>183.3653068613897</v>
       </c>
       <c r="R41" t="n">
-        <v>106.6622306224661</v>
+        <v>106.6622306224655</v>
       </c>
       <c r="S41" t="n">
-        <v>38.69326138235643</v>
+        <v>38.69326138235621</v>
       </c>
       <c r="T41" t="n">
-        <v>7.43301159413122</v>
+        <v>7.433011594131177</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1358403032622495</v>
+        <v>0.1358403032622487</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9085121225847274</v>
+        <v>0.908512122584722</v>
       </c>
       <c r="H42" t="n">
-        <v>8.774314447068289</v>
+        <v>8.774314447068239</v>
       </c>
       <c r="I42" t="n">
-        <v>31.27991299250048</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J42" t="n">
-        <v>85.83447207279656</v>
+        <v>85.83447207279606</v>
       </c>
       <c r="K42" t="n">
-        <v>146.7047842859733</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L42" t="n">
-        <v>197.262686967355</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M42" t="n">
-        <v>230.1962514110513</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N42" t="n">
-        <v>236.2888612155778</v>
+        <v>236.2888612155765</v>
       </c>
       <c r="O42" t="n">
-        <v>216.1581452362005</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P42" t="n">
-        <v>173.4859683907625</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q42" t="n">
-        <v>115.970775507482</v>
+        <v>115.9707755074814</v>
       </c>
       <c r="R42" t="n">
-        <v>56.40744564609388</v>
+        <v>56.40744564609356</v>
       </c>
       <c r="S42" t="n">
-        <v>16.87521420678209</v>
+        <v>16.875214206782</v>
       </c>
       <c r="T42" t="n">
-        <v>3.661941406383176</v>
+        <v>3.661941406383155</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05977053438057419</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7616660446748575</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H43" t="n">
-        <v>6.771903560836466</v>
+        <v>6.771903560836427</v>
       </c>
       <c r="I43" t="n">
-        <v>22.90537523440391</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J43" t="n">
-        <v>53.84978935851242</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K43" t="n">
-        <v>88.49174591767888</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L43" t="n">
-        <v>113.238968132842</v>
+        <v>113.2389681328414</v>
       </c>
       <c r="M43" t="n">
-        <v>119.3946146211688</v>
+        <v>119.3946146211681</v>
       </c>
       <c r="N43" t="n">
-        <v>116.5556775455626</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O43" t="n">
-        <v>107.6580332964063</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P43" t="n">
-        <v>92.1200459850391</v>
+        <v>92.12004598503857</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.77914488636467</v>
+        <v>63.7791448863643</v>
       </c>
       <c r="R43" t="n">
-        <v>34.2472750632895</v>
+        <v>34.2472750632893</v>
       </c>
       <c r="S43" t="n">
-        <v>13.27376188765183</v>
+        <v>13.27376188765176</v>
       </c>
       <c r="T43" t="n">
-        <v>3.254391281792572</v>
+        <v>3.254391281792554</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04154542061862864</v>
+        <v>0.04154542061862841</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.698003790778119</v>
+        <v>1.698003790778109</v>
       </c>
       <c r="H44" t="n">
-        <v>17.38968132230642</v>
+        <v>17.38968132230631</v>
       </c>
       <c r="I44" t="n">
-        <v>65.4622911439735</v>
+        <v>65.4622911439731</v>
       </c>
       <c r="J44" t="n">
-        <v>144.1159492375545</v>
+        <v>144.1159492375537</v>
       </c>
       <c r="K44" t="n">
-        <v>215.9924497011923</v>
+        <v>215.992449701191</v>
       </c>
       <c r="L44" t="n">
-        <v>267.9577332132183</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M44" t="n">
-        <v>298.1546081274686</v>
+        <v>298.1546081274668</v>
       </c>
       <c r="N44" t="n">
-        <v>302.9790613980169</v>
+        <v>302.9790613980152</v>
       </c>
       <c r="O44" t="n">
-        <v>286.094536203467</v>
+        <v>286.0945362034653</v>
       </c>
       <c r="P44" t="n">
-        <v>244.1750676186322</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.3653068613907</v>
+        <v>183.3653068613897</v>
       </c>
       <c r="R44" t="n">
-        <v>106.6622306224661</v>
+        <v>106.6622306224655</v>
       </c>
       <c r="S44" t="n">
-        <v>38.69326138235643</v>
+        <v>38.6932613823562</v>
       </c>
       <c r="T44" t="n">
-        <v>7.43301159413122</v>
+        <v>7.433011594131176</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1358403032622495</v>
+        <v>0.1358403032622487</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9085121225847274</v>
+        <v>0.9085121225847219</v>
       </c>
       <c r="H45" t="n">
-        <v>8.774314447068289</v>
+        <v>8.774314447068237</v>
       </c>
       <c r="I45" t="n">
-        <v>31.27991299250048</v>
+        <v>31.2799129925003</v>
       </c>
       <c r="J45" t="n">
-        <v>85.83447207279656</v>
+        <v>85.83447207279605</v>
       </c>
       <c r="K45" t="n">
-        <v>146.7047842859733</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L45" t="n">
-        <v>197.262686967355</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M45" t="n">
-        <v>230.1962514110513</v>
+        <v>230.1962514110499</v>
       </c>
       <c r="N45" t="n">
-        <v>236.2888612155778</v>
+        <v>236.2888612155764</v>
       </c>
       <c r="O45" t="n">
-        <v>216.1581452362005</v>
+        <v>216.1581452361992</v>
       </c>
       <c r="P45" t="n">
-        <v>173.4859683907625</v>
+        <v>173.4859683907615</v>
       </c>
       <c r="Q45" t="n">
-        <v>115.970775507482</v>
+        <v>115.9707755074814</v>
       </c>
       <c r="R45" t="n">
-        <v>56.40744564609388</v>
+        <v>56.40744564609355</v>
       </c>
       <c r="S45" t="n">
-        <v>16.87521420678209</v>
+        <v>16.87521420678199</v>
       </c>
       <c r="T45" t="n">
-        <v>3.661941406383176</v>
+        <v>3.661941406383154</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05977053438057419</v>
+        <v>0.05977053438057384</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7616660446748575</v>
+        <v>0.7616660446748531</v>
       </c>
       <c r="H46" t="n">
-        <v>6.771903560836466</v>
+        <v>6.771903560836426</v>
       </c>
       <c r="I46" t="n">
-        <v>22.90537523440391</v>
+        <v>22.90537523440377</v>
       </c>
       <c r="J46" t="n">
-        <v>53.84978935851242</v>
+        <v>53.84978935851211</v>
       </c>
       <c r="K46" t="n">
-        <v>88.49174591767888</v>
+        <v>88.49174591767836</v>
       </c>
       <c r="L46" t="n">
-        <v>113.238968132842</v>
+        <v>113.2389681328414</v>
       </c>
       <c r="M46" t="n">
-        <v>119.3946146211688</v>
+        <v>119.3946146211681</v>
       </c>
       <c r="N46" t="n">
-        <v>116.5556775455626</v>
+        <v>116.5556775455619</v>
       </c>
       <c r="O46" t="n">
-        <v>107.6580332964063</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P46" t="n">
-        <v>92.1200459850391</v>
+        <v>92.12004598503856</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.77914488636467</v>
+        <v>63.77914488636429</v>
       </c>
       <c r="R46" t="n">
-        <v>34.2472750632895</v>
+        <v>34.24727506328929</v>
       </c>
       <c r="S46" t="n">
-        <v>13.27376188765183</v>
+        <v>13.27376188765175</v>
       </c>
       <c r="T46" t="n">
-        <v>3.254391281792572</v>
+        <v>3.254391281792553</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04154542061862864</v>
+        <v>0.0415454206186284</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,22 +35406,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.04966966484172</v>
+        <v>65.0496696648417</v>
       </c>
       <c r="J11" t="n">
         <v>144.1159492375537</v>
       </c>
       <c r="K11" t="n">
-        <v>215.9924497011911</v>
+        <v>215.992449701191</v>
       </c>
       <c r="L11" t="n">
-        <v>267.9577332132167</v>
+        <v>267.9577332132168</v>
       </c>
       <c r="M11" t="n">
         <v>298.1546081274669</v>
       </c>
       <c r="N11" t="n">
-        <v>302.9790613980153</v>
+        <v>302.9790613980151</v>
       </c>
       <c r="O11" t="n">
         <v>286.0945362034654</v>
@@ -35430,7 +35430,7 @@
         <v>244.1750676186307</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.3653068613899</v>
+        <v>183.3653068613896</v>
       </c>
       <c r="R11" t="n">
         <v>106.6622306224654</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>31.27991299250031</v>
+        <v>57.60685557882112</v>
       </c>
       <c r="J12" t="n">
-        <v>85.83447207279606</v>
+        <v>219.0638345218604</v>
       </c>
       <c r="K12" t="n">
         <v>146.7047842859724</v>
@@ -35497,19 +35497,19 @@
         <v>197.2626869673538</v>
       </c>
       <c r="M12" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110498</v>
       </c>
       <c r="N12" t="n">
-        <v>236.2888612155765</v>
+        <v>236.2888612155764</v>
       </c>
       <c r="O12" t="n">
-        <v>216.1581452361992</v>
+        <v>216.1581452361993</v>
       </c>
       <c r="P12" t="n">
         <v>173.4859683907616</v>
       </c>
       <c r="Q12" t="n">
-        <v>275.5270805428663</v>
+        <v>115.9707755074814</v>
       </c>
       <c r="R12" t="n">
         <v>56.40744564609349</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.84978935851212</v>
+        <v>53.8497893585121</v>
       </c>
       <c r="K13" t="n">
-        <v>88.49174591767836</v>
+        <v>248.4614155283657</v>
       </c>
       <c r="L13" t="n">
-        <v>113.2389681328414</v>
+        <v>534.0309047249373</v>
       </c>
       <c r="M13" t="n">
         <v>534.0309047249373</v>
       </c>
       <c r="N13" t="n">
-        <v>534.0309047249373</v>
+        <v>116.5556775455618</v>
       </c>
       <c r="O13" t="n">
-        <v>531.5663658476999</v>
+        <v>107.6580332964056</v>
       </c>
       <c r="P13" t="n">
-        <v>182.5151570736584</v>
+        <v>443.1371106015454</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.77914488636452</v>
+        <v>63.77914488636407</v>
       </c>
       <c r="R13" t="n">
-        <v>13.04363198160747</v>
+        <v>13.04363198160746</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>65.0496696648417</v>
       </c>
       <c r="J14" t="n">
-        <v>144.1159492375537</v>
+        <v>144.1159492375534</v>
       </c>
       <c r="K14" t="n">
-        <v>215.992449701191</v>
+        <v>215.9924497011909</v>
       </c>
       <c r="L14" t="n">
-        <v>267.9577332132169</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M14" t="n">
         <v>298.1546081274669</v>
       </c>
       <c r="N14" t="n">
-        <v>302.9790613980151</v>
+        <v>302.9790613980153</v>
       </c>
       <c r="O14" t="n">
         <v>286.0945362034654</v>
@@ -35667,7 +35667,7 @@
         <v>244.1750676186307</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.3653068613896</v>
+        <v>183.3653068613899</v>
       </c>
       <c r="R14" t="n">
         <v>106.6622306224654</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>31.2799129925003</v>
+        <v>57.60685557882111</v>
       </c>
       <c r="J15" t="n">
-        <v>85.83447207279605</v>
+        <v>219.0638345218604</v>
       </c>
       <c r="K15" t="n">
         <v>146.7047842859724</v>
@@ -35734,13 +35734,13 @@
         <v>197.2626869673538</v>
       </c>
       <c r="M15" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110498</v>
       </c>
       <c r="N15" t="n">
         <v>236.2888612155764</v>
       </c>
       <c r="O15" t="n">
-        <v>375.7144502715844</v>
+        <v>216.1581452361993</v>
       </c>
       <c r="P15" t="n">
         <v>173.4859683907616</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3040167975928</v>
+        <v>53.84978935851211</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7351456417588</v>
+        <v>178.886857006298</v>
       </c>
       <c r="L16" t="n">
+        <v>113.2389681328414</v>
+      </c>
+      <c r="M16" t="n">
         <v>534.0309047249372</v>
       </c>
-      <c r="M16" t="n">
-        <v>119.3946146211681</v>
-      </c>
       <c r="N16" t="n">
-        <v>116.5556775455619</v>
+        <v>534.0309047249372</v>
       </c>
       <c r="O16" t="n">
-        <v>531.5663658477001</v>
+        <v>531.5663658476999</v>
       </c>
       <c r="P16" t="n">
-        <v>443.1371106015454</v>
+        <v>92.12004598503859</v>
       </c>
       <c r="Q16" t="n">
         <v>63.77914488636452</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>65.04966966484172</v>
+        <v>65.0496696648417</v>
       </c>
       <c r="J17" t="n">
         <v>583.7671486849455</v>
@@ -35898,13 +35898,13 @@
         <v>302.9790613980151</v>
       </c>
       <c r="O17" t="n">
-        <v>286.0945362034654</v>
+        <v>286.0945362034652</v>
       </c>
       <c r="P17" t="n">
         <v>244.1750676186307</v>
       </c>
       <c r="Q17" t="n">
-        <v>338.0556515880257</v>
+        <v>338.0556515880157</v>
       </c>
       <c r="R17" t="n">
         <v>277.5249222922198</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>31.27991299250031</v>
+        <v>57.6068555788211</v>
       </c>
       <c r="J18" t="n">
-        <v>85.83447207279606</v>
+        <v>85.83447207279605</v>
       </c>
       <c r="K18" t="n">
         <v>146.7047842859724</v>
@@ -35974,19 +35974,19 @@
         <v>230.19625141105</v>
       </c>
       <c r="N18" t="n">
-        <v>236.2888612155765</v>
+        <v>236.2888612155764</v>
       </c>
       <c r="O18" t="n">
-        <v>216.1581452361993</v>
+        <v>216.1581452361991</v>
       </c>
       <c r="P18" t="n">
         <v>173.4859683907616</v>
       </c>
       <c r="Q18" t="n">
-        <v>275.5270805428663</v>
+        <v>130.8437964471118</v>
       </c>
       <c r="R18" t="n">
-        <v>56.40744564609349</v>
+        <v>174.7637871555276</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,28 +36044,28 @@
         <v>141.3040167975928</v>
       </c>
       <c r="K19" t="n">
-        <v>88.49174591767834</v>
+        <v>366.0255384137749</v>
       </c>
       <c r="L19" t="n">
-        <v>535.6731921408829</v>
+        <v>535.673192140883</v>
       </c>
       <c r="M19" t="n">
-        <v>583.5197329857266</v>
+        <v>119.3946146211681</v>
       </c>
       <c r="N19" t="n">
-        <v>563.2817413411626</v>
+        <v>495.9355414192189</v>
       </c>
       <c r="O19" t="n">
         <v>531.5663658477001</v>
       </c>
       <c r="P19" t="n">
-        <v>189.1995848111501</v>
+        <v>443.1371106015454</v>
       </c>
       <c r="Q19" t="n">
         <v>233.6708366685179</v>
       </c>
       <c r="R19" t="n">
-        <v>13.04363198160747</v>
+        <v>13.04363198160746</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>65.04966966484172</v>
+        <v>65.0496696648417</v>
       </c>
       <c r="J20" t="n">
         <v>144.1159492375537</v>
@@ -36126,22 +36126,22 @@
         <v>215.992449701191</v>
       </c>
       <c r="L20" t="n">
-        <v>267.9577332132167</v>
+        <v>727.2840153079306</v>
       </c>
       <c r="M20" t="n">
-        <v>298.1546081274668</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N20" t="n">
-        <v>302.9790613980153</v>
+        <v>302.9790613980151</v>
       </c>
       <c r="O20" t="n">
-        <v>286.0945362034654</v>
+        <v>286.0945362034652</v>
       </c>
       <c r="P20" t="n">
-        <v>294.5979033461144</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q20" t="n">
-        <v>727.2840153079333</v>
+        <v>318.3805689406936</v>
       </c>
       <c r="R20" t="n">
         <v>277.5249222922198</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>31.2799129925003</v>
+        <v>57.6068555788211</v>
       </c>
       <c r="J21" t="n">
-        <v>85.83447207279607</v>
+        <v>219.0638345218603</v>
       </c>
       <c r="K21" t="n">
         <v>146.7047842859724</v>
@@ -36208,10 +36208,10 @@
         <v>197.2626869673538</v>
       </c>
       <c r="M21" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110498</v>
       </c>
       <c r="N21" t="n">
-        <v>236.2888612155765</v>
+        <v>236.2888612155764</v>
       </c>
       <c r="O21" t="n">
         <v>216.1581452361993</v>
@@ -36220,7 +36220,7 @@
         <v>173.4859683907616</v>
       </c>
       <c r="Q21" t="n">
-        <v>275.5270805428663</v>
+        <v>115.9707755074814</v>
       </c>
       <c r="R21" t="n">
         <v>56.40744564609349</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>141.3040167975928</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K22" t="n">
-        <v>185.5712847437895</v>
+        <v>91.9001393485068</v>
       </c>
       <c r="L22" t="n">
         <v>535.6731921408829</v>
@@ -36296,13 +36296,13 @@
         <v>531.5663658477001</v>
       </c>
       <c r="P22" t="n">
-        <v>92.12004598503836</v>
+        <v>443.1371106015454</v>
       </c>
       <c r="Q22" t="n">
-        <v>233.6708366685179</v>
+        <v>63.77914488636452</v>
       </c>
       <c r="R22" t="n">
-        <v>13.04363198160747</v>
+        <v>13.04363198160746</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>65.04966966484172</v>
+        <v>65.0496696648417</v>
       </c>
       <c r="J23" t="n">
         <v>583.7671486849455</v>
@@ -36363,7 +36363,7 @@
         <v>1058.770522386219</v>
       </c>
       <c r="L23" t="n">
-        <v>305.7210009414432</v>
+        <v>305.7210009414423</v>
       </c>
       <c r="M23" t="n">
         <v>298.1546081274669</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>31.27991299250031</v>
+        <v>57.6068555788211</v>
       </c>
       <c r="J24" t="n">
-        <v>245.3907771081806</v>
+        <v>85.83447207279605</v>
       </c>
       <c r="K24" t="n">
         <v>146.7047842859724</v>
@@ -36445,22 +36445,22 @@
         <v>197.2626869673538</v>
       </c>
       <c r="M24" t="n">
-        <v>230.19625141105</v>
+        <v>230.1962514110498</v>
       </c>
       <c r="N24" t="n">
-        <v>236.2888612155766</v>
+        <v>236.2888612155764</v>
       </c>
       <c r="O24" t="n">
-        <v>216.1581452361993</v>
+        <v>216.1581452361991</v>
       </c>
       <c r="P24" t="n">
         <v>173.4859683907616</v>
       </c>
       <c r="Q24" t="n">
-        <v>115.9707755074814</v>
+        <v>130.8437964471118</v>
       </c>
       <c r="R24" t="n">
-        <v>56.40744564609349</v>
+        <v>174.7637871555278</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,10 +36518,10 @@
         <v>141.3040167975928</v>
       </c>
       <c r="K25" t="n">
-        <v>88.49174591767837</v>
+        <v>366.0255384137749</v>
       </c>
       <c r="L25" t="n">
-        <v>535.6731921408827</v>
+        <v>443.8927918828889</v>
       </c>
       <c r="M25" t="n">
         <v>583.5197329857267</v>
@@ -36533,13 +36533,13 @@
         <v>531.5663658477001</v>
       </c>
       <c r="P25" t="n">
-        <v>443.1371106015454</v>
+        <v>92.12004598503836</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.40716429011354</v>
+        <v>233.6708366685179</v>
       </c>
       <c r="R25" t="n">
-        <v>13.04363198160747</v>
+        <v>13.04363198160746</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.0496696648421</v>
+        <v>65.04966966484172</v>
       </c>
       <c r="J26" t="n">
-        <v>583.7671486849465</v>
+        <v>583.7671486849455</v>
       </c>
       <c r="K26" t="n">
-        <v>1058.770522386221</v>
+        <v>1058.770522386219</v>
       </c>
       <c r="L26" t="n">
-        <v>305.7210009414316</v>
+        <v>267.9577332132169</v>
       </c>
       <c r="M26" t="n">
-        <v>298.1546081274687</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N26" t="n">
-        <v>302.9790613980172</v>
+        <v>302.9790613980153</v>
       </c>
       <c r="O26" t="n">
-        <v>286.0945362034672</v>
+        <v>323.8578039316917</v>
       </c>
       <c r="P26" t="n">
-        <v>1080.851708864487</v>
+        <v>1080.851708864486</v>
       </c>
       <c r="Q26" t="n">
-        <v>735.384282577143</v>
+        <v>735.3842825771417</v>
       </c>
       <c r="R26" t="n">
-        <v>277.5249222922203</v>
+        <v>277.5249222922193</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>31.27991299250061</v>
+        <v>57.60685557882111</v>
       </c>
       <c r="J27" t="n">
-        <v>85.83447207279642</v>
+        <v>219.0638345218598</v>
       </c>
       <c r="K27" t="n">
-        <v>146.7047842859733</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L27" t="n">
-        <v>197.262686967355</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M27" t="n">
-        <v>230.1962514110514</v>
+        <v>230.19625141105</v>
       </c>
       <c r="N27" t="n">
-        <v>236.2888612155775</v>
+        <v>236.2888612155766</v>
       </c>
       <c r="O27" t="n">
-        <v>216.1581452362007</v>
+        <v>216.1581452361993</v>
       </c>
       <c r="P27" t="n">
-        <v>173.4859683907625</v>
+        <v>173.4859683907616</v>
       </c>
       <c r="Q27" t="n">
-        <v>275.5270805428572</v>
+        <v>115.9707755074814</v>
       </c>
       <c r="R27" t="n">
-        <v>56.40744564609395</v>
+        <v>56.40744564609349</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>141.3040167975931</v>
+        <v>141.3040167975928</v>
       </c>
       <c r="K28" t="n">
-        <v>366.0255384137754</v>
+        <v>366.025538413775</v>
       </c>
       <c r="L28" t="n">
-        <v>535.6731921408834</v>
+        <v>443.8927918828888</v>
       </c>
       <c r="M28" t="n">
-        <v>140.7222681112214</v>
+        <v>583.5197329857267</v>
       </c>
       <c r="N28" t="n">
-        <v>563.2817413411633</v>
+        <v>563.2817413411626</v>
       </c>
       <c r="O28" t="n">
-        <v>531.5663658477006</v>
+        <v>531.5663658477001</v>
       </c>
       <c r="P28" t="n">
-        <v>443.1371106015458</v>
+        <v>92.12004598503836</v>
       </c>
       <c r="Q28" t="n">
-        <v>233.6708366685184</v>
+        <v>233.6708366685179</v>
       </c>
       <c r="R28" t="n">
-        <v>13.04363198160766</v>
+        <v>13.04363198160747</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>65.0496696648421</v>
+        <v>65.04966966484172</v>
       </c>
       <c r="J29" t="n">
-        <v>583.7671486849463</v>
+        <v>583.7671486849455</v>
       </c>
       <c r="K29" t="n">
-        <v>1058.770522386221</v>
+        <v>1058.770522386219</v>
       </c>
       <c r="L29" t="n">
-        <v>1142.397642187287</v>
+        <v>305.7210009414441</v>
       </c>
       <c r="M29" t="n">
-        <v>298.1546081274687</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N29" t="n">
-        <v>302.9790613980172</v>
+        <v>302.9790613980153</v>
       </c>
       <c r="O29" t="n">
-        <v>286.0945362034672</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P29" t="n">
-        <v>244.1750676186321</v>
+        <v>1080.851708864486</v>
       </c>
       <c r="Q29" t="n">
-        <v>735.384282577143</v>
+        <v>735.3842825771417</v>
       </c>
       <c r="R29" t="n">
-        <v>277.5249222922203</v>
+        <v>277.5249222922193</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>31.27991299250061</v>
+        <v>57.60685557882113</v>
       </c>
       <c r="J30" t="n">
-        <v>245.3907771081713</v>
+        <v>85.83447207279607</v>
       </c>
       <c r="K30" t="n">
-        <v>146.7047842859733</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L30" t="n">
-        <v>197.262686967355</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M30" t="n">
-        <v>230.1962514110514</v>
+        <v>230.19625141105</v>
       </c>
       <c r="N30" t="n">
-        <v>236.2888612155775</v>
+        <v>236.2888612155764</v>
       </c>
       <c r="O30" t="n">
-        <v>216.1581452362007</v>
+        <v>216.1581452361995</v>
       </c>
       <c r="P30" t="n">
-        <v>173.4859683907625</v>
+        <v>173.4859683907616</v>
       </c>
       <c r="Q30" t="n">
-        <v>115.9707755074824</v>
+        <v>130.8437964471111</v>
       </c>
       <c r="R30" t="n">
-        <v>56.40744564609395</v>
+        <v>174.7637871555276</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.84978935851241</v>
+        <v>141.3040167975928</v>
       </c>
       <c r="K31" t="n">
-        <v>180.573992760504</v>
+        <v>366.025538413775</v>
       </c>
       <c r="L31" t="n">
-        <v>535.6731921408835</v>
+        <v>535.6731921408827</v>
       </c>
       <c r="M31" t="n">
-        <v>583.5197329857275</v>
+        <v>140.7222681112253</v>
       </c>
       <c r="N31" t="n">
-        <v>563.2817413411631</v>
+        <v>563.2817413411626</v>
       </c>
       <c r="O31" t="n">
-        <v>531.5663658477006</v>
+        <v>531.5663658477001</v>
       </c>
       <c r="P31" t="n">
         <v>443.1371106015458</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.77914488636452</v>
+        <v>233.6708366685179</v>
       </c>
       <c r="R31" t="n">
-        <v>13.04363198160766</v>
+        <v>13.04363198160747</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>65.0496696648421</v>
+        <v>65.04966966484172</v>
       </c>
       <c r="J32" t="n">
-        <v>583.7671486849463</v>
+        <v>144.1159492375537</v>
       </c>
       <c r="K32" t="n">
-        <v>215.9924497011923</v>
+        <v>1058.770522386219</v>
       </c>
       <c r="L32" t="n">
-        <v>267.9577332132183</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M32" t="n">
-        <v>298.1546081274687</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N32" t="n">
-        <v>302.9790613980169</v>
+        <v>302.9790613980151</v>
       </c>
       <c r="O32" t="n">
-        <v>1166.635876616709</v>
+        <v>763.5090033790848</v>
       </c>
       <c r="P32" t="n">
-        <v>1080.851708864487</v>
+        <v>1080.851708864486</v>
       </c>
       <c r="Q32" t="n">
-        <v>735.384282577143</v>
+        <v>735.3842825771417</v>
       </c>
       <c r="R32" t="n">
-        <v>277.5249222922203</v>
+        <v>277.5249222922193</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>57.60685557882131</v>
+        <v>57.60685557882113</v>
       </c>
       <c r="J33" t="n">
-        <v>100.7074930124178</v>
+        <v>85.83447207279607</v>
       </c>
       <c r="K33" t="n">
-        <v>146.7047842859733</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L33" t="n">
-        <v>197.262686967355</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M33" t="n">
-        <v>230.1962514110513</v>
+        <v>230.19625141105</v>
       </c>
       <c r="N33" t="n">
-        <v>236.2888612155779</v>
+        <v>236.2888612155764</v>
       </c>
       <c r="O33" t="n">
-        <v>216.1581452362004</v>
+        <v>216.1581452361995</v>
       </c>
       <c r="P33" t="n">
-        <v>173.4859683907625</v>
+        <v>173.4859683907616</v>
       </c>
       <c r="Q33" t="n">
-        <v>115.9707755074821</v>
+        <v>130.8437964471111</v>
       </c>
       <c r="R33" t="n">
-        <v>174.763787155528</v>
+        <v>174.7637871555276</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>53.84978935851241</v>
+        <v>53.84978935851211</v>
       </c>
       <c r="K34" t="n">
-        <v>180.573992760504</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L34" t="n">
-        <v>535.6731921408835</v>
+        <v>535.673192140883</v>
       </c>
       <c r="M34" t="n">
-        <v>583.5197329857275</v>
+        <v>583.5197329857267</v>
       </c>
       <c r="N34" t="n">
-        <v>563.2817413411631</v>
+        <v>563.2817413411626</v>
       </c>
       <c r="O34" t="n">
-        <v>531.5663658477006</v>
+        <v>531.5663658477001</v>
       </c>
       <c r="P34" t="n">
-        <v>443.1371106015458</v>
+        <v>443.1371106015454</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.77914488636452</v>
+        <v>155.8613917291941</v>
       </c>
       <c r="R34" t="n">
-        <v>13.04363198160766</v>
+        <v>13.04363198160747</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>65.0496696648421</v>
+        <v>65.04966966484172</v>
       </c>
       <c r="J35" t="n">
-        <v>583.7671486849463</v>
+        <v>144.1159492375537</v>
       </c>
       <c r="K35" t="n">
-        <v>215.9924497011923</v>
+        <v>727.2840153079308</v>
       </c>
       <c r="L35" t="n">
-        <v>267.9577332132184</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M35" t="n">
-        <v>298.1546081274687</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N35" t="n">
-        <v>302.9790613980169</v>
+        <v>302.9790613980151</v>
       </c>
       <c r="O35" t="n">
-        <v>286.094536203467</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P35" t="n">
-        <v>244.1750676186321</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q35" t="n">
-        <v>338.0556515880035</v>
+        <v>266.4152854286681</v>
       </c>
       <c r="R35" t="n">
-        <v>277.5249222922207</v>
+        <v>277.5249222922198</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>31.27991299250049</v>
+        <v>57.60685557882111</v>
       </c>
       <c r="J36" t="n">
-        <v>245.3907771081726</v>
+        <v>219.0638345218598</v>
       </c>
       <c r="K36" t="n">
-        <v>146.7047842859733</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L36" t="n">
-        <v>197.262686967355</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M36" t="n">
-        <v>230.1962514110513</v>
+        <v>230.19625141105</v>
       </c>
       <c r="N36" t="n">
-        <v>236.2888612155779</v>
+        <v>236.2888612155765</v>
       </c>
       <c r="O36" t="n">
-        <v>216.1581452362004</v>
+        <v>216.1581452361993</v>
       </c>
       <c r="P36" t="n">
-        <v>173.4859683907625</v>
+        <v>173.4859683907616</v>
       </c>
       <c r="Q36" t="n">
-        <v>115.9707755074821</v>
+        <v>115.9707755074814</v>
       </c>
       <c r="R36" t="n">
-        <v>56.40744564609395</v>
+        <v>56.40744564609349</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>141.3040167975931</v>
+        <v>141.3040167975928</v>
       </c>
       <c r="K37" t="n">
-        <v>366.0255384137755</v>
+        <v>366.0255384137749</v>
       </c>
       <c r="L37" t="n">
-        <v>535.6731921408834</v>
+        <v>355.2189384708881</v>
       </c>
       <c r="M37" t="n">
-        <v>583.5197329857274</v>
+        <v>583.5197329857267</v>
       </c>
       <c r="N37" t="n">
-        <v>563.2817413411631</v>
+        <v>563.2817413411626</v>
       </c>
       <c r="O37" t="n">
-        <v>351.1121121777001</v>
+        <v>531.5663658477001</v>
       </c>
       <c r="P37" t="n">
-        <v>92.12004598503927</v>
+        <v>92.12004598503836</v>
       </c>
       <c r="Q37" t="n">
-        <v>233.6708366685184</v>
+        <v>233.6708366685179</v>
       </c>
       <c r="R37" t="n">
-        <v>13.04363198160766</v>
+        <v>13.04363198160747</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>65.0496696648421</v>
+        <v>65.04966966484172</v>
       </c>
       <c r="J38" t="n">
-        <v>583.7671486849463</v>
+        <v>144.1159492375537</v>
       </c>
       <c r="K38" t="n">
-        <v>370.6827944278293</v>
+        <v>215.9924497011911</v>
       </c>
       <c r="L38" t="n">
-        <v>267.9577332132183</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M38" t="n">
-        <v>298.1546081274685</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N38" t="n">
-        <v>302.9790613980169</v>
+        <v>302.9790613980153</v>
       </c>
       <c r="O38" t="n">
-        <v>286.094536203467</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P38" t="n">
-        <v>244.1750676186321</v>
+        <v>294.5979033461074</v>
       </c>
       <c r="Q38" t="n">
-        <v>183.3653068613908</v>
+        <v>727.2840153079308</v>
       </c>
       <c r="R38" t="n">
-        <v>277.5249222922207</v>
+        <v>277.5249222922198</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>31.27991299250048</v>
+        <v>57.60685557882111</v>
       </c>
       <c r="J39" t="n">
-        <v>85.83447207279656</v>
+        <v>85.83447207279606</v>
       </c>
       <c r="K39" t="n">
-        <v>146.7047842859733</v>
+        <v>146.7047842859725</v>
       </c>
       <c r="L39" t="n">
-        <v>197.262686967355</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M39" t="n">
-        <v>230.1962514110512</v>
+        <v>230.19625141105</v>
       </c>
       <c r="N39" t="n">
-        <v>236.2888612155779</v>
+        <v>236.2888612155765</v>
       </c>
       <c r="O39" t="n">
-        <v>216.1581452362005</v>
+        <v>216.1581452361993</v>
       </c>
       <c r="P39" t="n">
-        <v>173.4859683907625</v>
+        <v>173.4859683907616</v>
       </c>
       <c r="Q39" t="n">
-        <v>275.5270805428581</v>
+        <v>130.8437964471109</v>
       </c>
       <c r="R39" t="n">
-        <v>56.40744564609395</v>
+        <v>174.7637871555278</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>141.3040167975931</v>
+        <v>141.3040167975928</v>
       </c>
       <c r="K40" t="n">
-        <v>298.679338491851</v>
+        <v>366.0255384137749</v>
       </c>
       <c r="L40" t="n">
-        <v>535.6731921408835</v>
+        <v>355.2189384708881</v>
       </c>
       <c r="M40" t="n">
-        <v>119.3946146211688</v>
+        <v>583.5197329857267</v>
       </c>
       <c r="N40" t="n">
-        <v>563.2817413411631</v>
+        <v>563.2817413411626</v>
       </c>
       <c r="O40" t="n">
-        <v>531.5663658477006</v>
+        <v>531.5663658477001</v>
       </c>
       <c r="P40" t="n">
-        <v>443.1371106015458</v>
+        <v>92.12004598503836</v>
       </c>
       <c r="Q40" t="n">
-        <v>233.6708366685184</v>
+        <v>233.6708366685179</v>
       </c>
       <c r="R40" t="n">
-        <v>13.04363198160766</v>
+        <v>13.04363198160747</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>65.0496696648421</v>
+        <v>65.04966966484172</v>
       </c>
       <c r="J41" t="n">
-        <v>144.1159492375546</v>
+        <v>144.1159492375537</v>
       </c>
       <c r="K41" t="n">
-        <v>215.9924497011923</v>
+        <v>215.9924497011911</v>
       </c>
       <c r="L41" t="n">
-        <v>267.9577332132185</v>
+        <v>267.9577332132167</v>
       </c>
       <c r="M41" t="n">
-        <v>298.1546081274685</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N41" t="n">
-        <v>302.9790613980169</v>
+        <v>302.9790613980153</v>
       </c>
       <c r="O41" t="n">
-        <v>286.0945362034672</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P41" t="n">
-        <v>244.1750676186323</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q41" t="n">
-        <v>183.3653068613908</v>
+        <v>183.3653068613899</v>
       </c>
       <c r="R41" t="n">
-        <v>106.6622306224658</v>
+        <v>106.6622306224654</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>31.27991299250048</v>
+        <v>57.60685557882112</v>
       </c>
       <c r="J42" t="n">
-        <v>245.3907771081727</v>
+        <v>85.83447207279607</v>
       </c>
       <c r="K42" t="n">
-        <v>146.7047842859733</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L42" t="n">
-        <v>197.262686967355</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M42" t="n">
-        <v>230.1962514110513</v>
+        <v>230.19625141105</v>
       </c>
       <c r="N42" t="n">
-        <v>236.2888612155779</v>
+        <v>236.2888612155765</v>
       </c>
       <c r="O42" t="n">
-        <v>216.1581452362004</v>
+        <v>216.1581452361993</v>
       </c>
       <c r="P42" t="n">
-        <v>173.4859683907625</v>
+        <v>173.4859683907616</v>
       </c>
       <c r="Q42" t="n">
-        <v>115.9707755074821</v>
+        <v>130.8437964471111</v>
       </c>
       <c r="R42" t="n">
-        <v>56.40744564609395</v>
+        <v>174.7637871555278</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3040167975931</v>
+        <v>53.84978935851212</v>
       </c>
       <c r="K43" t="n">
-        <v>91.43262956722128</v>
+        <v>88.49174591767836</v>
       </c>
       <c r="L43" t="n">
-        <v>113.238968132842</v>
+        <v>113.2389681328414</v>
       </c>
       <c r="M43" t="n">
-        <v>534.0309047249405</v>
+        <v>534.0309047249373</v>
       </c>
       <c r="N43" t="n">
-        <v>534.0309047249405</v>
+        <v>534.0309047249373</v>
       </c>
       <c r="O43" t="n">
-        <v>531.5663658477008</v>
+        <v>531.5663658476999</v>
       </c>
       <c r="P43" t="n">
-        <v>92.12004598503904</v>
+        <v>182.5151570736584</v>
       </c>
       <c r="Q43" t="n">
         <v>63.77914488636452</v>
       </c>
       <c r="R43" t="n">
-        <v>13.04363198160766</v>
+        <v>13.04363198160747</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>65.0496696648421</v>
+        <v>65.0496696648417</v>
       </c>
       <c r="J44" t="n">
-        <v>144.1159492375545</v>
+        <v>144.1159492375537</v>
       </c>
       <c r="K44" t="n">
-        <v>215.9924497011924</v>
+        <v>215.9924497011911</v>
       </c>
       <c r="L44" t="n">
-        <v>267.9577332132183</v>
+        <v>267.9577332132169</v>
       </c>
       <c r="M44" t="n">
-        <v>298.1546081274687</v>
+        <v>298.1546081274669</v>
       </c>
       <c r="N44" t="n">
-        <v>302.9790613980169</v>
+        <v>302.9790613980151</v>
       </c>
       <c r="O44" t="n">
-        <v>286.094536203467</v>
+        <v>286.0945362034654</v>
       </c>
       <c r="P44" t="n">
-        <v>244.1750676186321</v>
+        <v>244.1750676186307</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.3653068613908</v>
+        <v>183.3653068613896</v>
       </c>
       <c r="R44" t="n">
-        <v>106.6622306224663</v>
+        <v>106.6622306224654</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>31.27991299250048</v>
+        <v>57.60685557882112</v>
       </c>
       <c r="J45" t="n">
-        <v>245.3907771081727</v>
+        <v>85.83447207279605</v>
       </c>
       <c r="K45" t="n">
-        <v>146.7047842859733</v>
+        <v>146.7047842859724</v>
       </c>
       <c r="L45" t="n">
-        <v>197.262686967355</v>
+        <v>197.2626869673538</v>
       </c>
       <c r="M45" t="n">
-        <v>230.1962514110513</v>
+        <v>230.1962514110498</v>
       </c>
       <c r="N45" t="n">
-        <v>236.2888612155779</v>
+        <v>236.2888612155764</v>
       </c>
       <c r="O45" t="n">
-        <v>216.1581452362004</v>
+        <v>216.1581452361993</v>
       </c>
       <c r="P45" t="n">
-        <v>173.4859683907625</v>
+        <v>173.4859683907616</v>
       </c>
       <c r="Q45" t="n">
-        <v>115.9707755074821</v>
+        <v>130.8437964471118</v>
       </c>
       <c r="R45" t="n">
-        <v>56.40744564609395</v>
+        <v>174.7637871555276</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3040167975931</v>
+        <v>53.8497893585121</v>
       </c>
       <c r="K46" t="n">
-        <v>366.0255384137754</v>
+        <v>88.49174591767837</v>
       </c>
       <c r="L46" t="n">
-        <v>534.0309047249405</v>
+        <v>113.2389681328414</v>
       </c>
       <c r="M46" t="n">
-        <v>159.1208626182997</v>
+        <v>534.0309047249373</v>
       </c>
       <c r="N46" t="n">
-        <v>116.5556775455625</v>
+        <v>534.0309047249373</v>
       </c>
       <c r="O46" t="n">
-        <v>107.6580332964063</v>
+        <v>531.5663658476999</v>
       </c>
       <c r="P46" t="n">
-        <v>443.1371106015458</v>
+        <v>182.5151570736589</v>
       </c>
       <c r="Q46" t="n">
-        <v>233.6708366685184</v>
+        <v>63.77914488636407</v>
       </c>
       <c r="R46" t="n">
-        <v>13.04363198160766</v>
+        <v>13.04363198160746</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
